--- a/BTH/Thuc_hanh_Excel_Co_ban.xlsx
+++ b/BTH/Thuc_hanh_Excel_Co_ban.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ThucHanhExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92DA974-B467-4F5F-9561-50466E299FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50429B91-E0C5-4AEF-9670-80C2DF39899E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15390" activeTab="5" xr2:uid="{8E08941F-1D49-4636-B2AE-37A49C149DBE}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15390" firstSheet="1" activeTab="6" xr2:uid="{8E08941F-1D49-4636-B2AE-37A49C149DBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="167">
   <si>
     <t>STT</t>
   </si>
@@ -478,16 +479,94 @@
   </si>
   <si>
     <t>Doanh thu</t>
+  </si>
+  <si>
+    <t>TÌNH HÌNH KINH DOANH THÁNG 07/2010</t>
+  </si>
+  <si>
+    <t>Bảng giá</t>
+  </si>
+  <si>
+    <t>Đơn giá
+ngày lẻ</t>
+  </si>
+  <si>
+    <t>Đơn giá
+tuần</t>
+  </si>
+  <si>
+    <t>Loại phòng</t>
+  </si>
+  <si>
+    <t>MÃ HÀNG</t>
+  </si>
+  <si>
+    <t>TÊN
+HÀNG</t>
+  </si>
+  <si>
+    <t>NGÀY
+BÁN</t>
+  </si>
+  <si>
+    <t>SỐ
+LƯỢNG</t>
+  </si>
+  <si>
+    <t>TRỊ GIÁ</t>
+  </si>
+  <si>
+    <t>THUẾ</t>
+  </si>
+  <si>
+    <t>HUÊ HỒNG</t>
+  </si>
+  <si>
+    <t>THU</t>
+  </si>
+  <si>
+    <t>TV</t>
+  </si>
+  <si>
+    <t>TL</t>
+  </si>
+  <si>
+    <t>MG</t>
+  </si>
+  <si>
+    <t>Bảng 1</t>
+  </si>
+  <si>
+    <t>THỜI ĐIỂM</t>
+  </si>
+  <si>
+    <t>Bảng 2</t>
+  </si>
+  <si>
+    <t>TÊN HÀNG</t>
+  </si>
+  <si>
+    <t>TỶ LỆ THUẾ</t>
+  </si>
+  <si>
+    <t>TIVI</t>
+  </si>
+  <si>
+    <t>TỦ LẠNH</t>
+  </si>
+  <si>
+    <t>MÁY GIẶT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="d/mm/yy"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -503,6 +582,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -512,7 +604,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -605,11 +697,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -675,6 +776,26 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2210,24 +2331,41 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EB8DD54-A1A8-4B8F-8545-E66B00CB56B7}">
-  <dimension ref="A2:J9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B1" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+    </row>
+    <row r="2" spans="1:15" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>77</v>
       </c>
@@ -2258,9 +2396,18 @@
       <c r="J2" s="12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="L2" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="M2" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="N2" s="27" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2275,14 +2422,38 @@
       <c r="E3" s="28">
         <v>40388</v>
       </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="F3" s="30">
+        <f>INT(DATEDIF(D3,E3,"D")/7)</f>
+        <v>4</v>
+      </c>
+      <c r="G3" s="30">
+        <f>MOD(DATEDIF(D3,E3,"D"),7)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <f>VLOOKUP(C3,$L$3:$N$5,2,FALSE)*F3</f>
+        <v>380</v>
+      </c>
+      <c r="I3" s="2">
+        <f>VLOOKUP(C3,$L$3:$N$5,3,FALSE)*G3</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <f>H3+I3</f>
+        <v>380</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M3" s="2">
+        <v>130</v>
+      </c>
+      <c r="N3" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2297,14 +2468,38 @@
       <c r="E4" s="28">
         <v>40378</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="F4" s="30">
+        <f t="shared" ref="F4:F9" si="0">INT(DATEDIF(D4,E4,"D")/7)</f>
+        <v>2</v>
+      </c>
+      <c r="G4" s="30">
+        <f t="shared" ref="G4:G9" si="1">MOD(DATEDIF(D4,E4,"D"),7)</f>
+        <v>3</v>
+      </c>
+      <c r="H4" s="2">
+        <f>VLOOKUP(C4,$L$3:$N$5,2,FALSE)*F4</f>
+        <v>260</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" ref="I4:I9" si="2">VLOOKUP(C4,$L$3:$N$5,3,FALSE)*G4</f>
+        <v>60</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" ref="J4:J9" si="3">H4+I4</f>
+        <v>320</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M4" s="2">
+        <v>95</v>
+      </c>
+      <c r="N4" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2319,14 +2514,38 @@
       <c r="E5" s="28">
         <v>40372</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="F5" s="30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G5" s="30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" ref="H4:H9" si="4">VLOOKUP(C5,$L$3:$N$5,2,FALSE)*F5</f>
+        <v>130</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="M5" s="2">
+        <v>65</v>
+      </c>
+      <c r="N5" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2341,14 +2560,29 @@
       <c r="E6" s="28">
         <v>40384</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="F6" s="30">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G6" s="30">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="4"/>
+        <v>130</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="J6" s="2">
+        <f>H6+I6</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2363,14 +2597,29 @@
       <c r="E7" s="28">
         <v>40379</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="F7" s="30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G7" s="30">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="4"/>
+        <v>95</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="3"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2385,14 +2634,41 @@
       <c r="E8" s="28">
         <v>40380</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="F8" s="30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G8" s="30">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="3"/>
+        <v>115</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -2407,14 +2683,48 @@
       <c r="E9" s="28">
         <v>40384</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="F9" s="30">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G9" s="30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="4"/>
+        <v>190</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="3"/>
+        <v>205</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="M9" s="2">
+        <f>SUMIF($C$3:$C$9,"A",J3:J9)</f>
+        <v>470</v>
+      </c>
+      <c r="N9" s="2">
+        <f>SUMIF($C$3:$C$9,"B",J3:J9)</f>
+        <v>755</v>
+      </c>
+      <c r="O9" s="2">
+        <f>SUMIF($C$3:$C$9,"C",J3:J9)</f>
+        <v>285</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:J1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2422,8 +2732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5CBED69-157D-4E15-A7D0-5C3558EEA35D}">
   <dimension ref="A2:S18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2433,7 +2743,7 @@
     <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.28515625" bestFit="1" customWidth="1"/>
@@ -2572,11 +2882,17 @@
         <v>142</v>
       </c>
       <c r="Q4" s="2">
-        <f>SUBTOTAL(1,H10:H14)</f>
-        <v>580000</v>
-      </c>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
+        <f>SUMIF($E$3:$E$14,"VŨNG TÀU",$H$3:$H$14)</f>
+        <v>2900000</v>
+      </c>
+      <c r="R4" s="2">
+        <f>SUMIF($E$3:$E$14,"NHA TRANG",$H$3:$H$14)</f>
+        <v>2900000</v>
+      </c>
+      <c r="S4" s="2">
+        <f>SUMIF($E$3:$E$14,"ĐÀ LẠT",$H$3:$H$14)</f>
+        <v>3250000</v>
+      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -2915,4 +3231,297 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1436D55-FB4C-49E7-BE1C-C65F411BD20A}">
+  <dimension ref="A1:S9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="31"/>
+    <col min="3" max="3" width="10.5703125" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="9.140625" style="31"/>
+    <col min="11" max="11" width="11.42578125" style="31" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="9.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="31"/>
+    <col min="16" max="16" width="12.85546875" style="31" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="31"/>
+    <col min="18" max="18" width="9.85546875" style="31" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5703125" style="31" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="31">
+        <v>1</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="31" t="str">
+        <f>HLOOKUP(B2,$Q$3:$S$4,2,0)</f>
+        <v>TIVI</v>
+      </c>
+      <c r="D2" s="38">
+        <v>39726</v>
+      </c>
+      <c r="E2" s="31">
+        <v>30</v>
+      </c>
+      <c r="K2" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="P2" s="31" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="31">
+        <v>2</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="31" t="str">
+        <f t="shared" ref="C3:C9" si="0">HLOOKUP(B3,$Q$3:$S$4,2,0)</f>
+        <v>TỦ LẠNH</v>
+      </c>
+      <c r="D3" s="38">
+        <v>39731</v>
+      </c>
+      <c r="E3" s="31">
+        <v>20</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="P3" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q3" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="R3" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="S3" s="36" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="31">
+        <v>3</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>MÁY GIẶT</v>
+      </c>
+      <c r="D4" s="38">
+        <v>39749</v>
+      </c>
+      <c r="E4" s="31">
+        <v>10</v>
+      </c>
+      <c r="K4" s="35">
+        <v>39722</v>
+      </c>
+      <c r="L4" s="34">
+        <v>250</v>
+      </c>
+      <c r="M4" s="34">
+        <v>300</v>
+      </c>
+      <c r="N4" s="34">
+        <v>280</v>
+      </c>
+      <c r="P4" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q4" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="R4" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="S4" s="36" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="31">
+        <v>4</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>MÁY GIẶT</v>
+      </c>
+      <c r="D5" s="38">
+        <v>39759</v>
+      </c>
+      <c r="E5" s="31">
+        <v>5</v>
+      </c>
+      <c r="K5" s="35">
+        <v>39753</v>
+      </c>
+      <c r="L5" s="34">
+        <v>240</v>
+      </c>
+      <c r="M5" s="34">
+        <v>280</v>
+      </c>
+      <c r="N5" s="34">
+        <v>270</v>
+      </c>
+      <c r="P5" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q5" s="37">
+        <v>0</v>
+      </c>
+      <c r="R5" s="37">
+        <v>0.05</v>
+      </c>
+      <c r="S5" s="37">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="31">
+        <v>5</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>TỦ LẠNH</v>
+      </c>
+      <c r="D6" s="38">
+        <v>39766</v>
+      </c>
+      <c r="E6" s="31">
+        <v>15</v>
+      </c>
+      <c r="K6" s="35">
+        <v>39783</v>
+      </c>
+      <c r="L6" s="34">
+        <v>210</v>
+      </c>
+      <c r="M6" s="34">
+        <v>250</v>
+      </c>
+      <c r="N6" s="34">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="31">
+        <v>6</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>TIVI</v>
+      </c>
+      <c r="D7" s="38">
+        <v>39772</v>
+      </c>
+      <c r="E7" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="31">
+        <v>7</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>TIVI</v>
+      </c>
+      <c r="D8" s="38">
+        <v>39784</v>
+      </c>
+      <c r="E8" s="31">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="31">
+        <v>8</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>TỦ LẠNH</v>
+      </c>
+      <c r="D9" s="38">
+        <v>39803</v>
+      </c>
+      <c r="E9" s="31">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/BTH/Thuc_hanh_Excel_Co_ban.xlsx
+++ b/BTH/Thuc_hanh_Excel_Co_ban.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ThucHanhExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50429B91-E0C5-4AEF-9670-80C2DF39899E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C469BE5-CEAA-4049-8BDF-90D8B18107CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15390" firstSheet="1" activeTab="6" xr2:uid="{8E08941F-1D49-4636-B2AE-37A49C149DBE}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="168">
   <si>
     <t>STT</t>
   </si>
@@ -556,6 +556,9 @@
   </si>
   <si>
     <t>MÁY GIẶT</t>
+  </si>
+  <si>
+    <t>TỔNG</t>
   </si>
 </sst>
 </file>
@@ -710,7 +713,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -784,9 +787,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -795,7 +795,22 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2333,8 +2348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EB8DD54-A1A8-4B8F-8545-E66B00CB56B7}">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2741,14 +2756,14 @@
     <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:19" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3235,16 +3250,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1436D55-FB4C-49E7-BE1C-C65F411BD20A}">
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="31"/>
+    <col min="2" max="2" width="11" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" style="31" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" style="31" bestFit="1" customWidth="1"/>
     <col min="5" max="10" width="9.140625" style="31"/>
@@ -3259,51 +3274,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="38" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="31">
+      <c r="A2" s="33">
         <v>1</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="C2" s="31" t="str">
+      <c r="C2" s="35" t="str">
         <f>HLOOKUP(B2,$Q$3:$S$4,2,0)</f>
         <v>TIVI</v>
       </c>
-      <c r="D2" s="38">
+      <c r="D2" s="39">
         <v>39726</v>
       </c>
-      <c r="E2" s="31">
+      <c r="E2" s="33">
         <v>30</v>
       </c>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
       <c r="K2" s="31" t="s">
         <v>159</v>
       </c>
@@ -3312,216 +3331,260 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="31">
+      <c r="A3" s="33">
         <v>2</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="C3" s="31" t="str">
+      <c r="C3" s="35" t="str">
         <f t="shared" ref="C3:C9" si="0">HLOOKUP(B3,$Q$3:$S$4,2,0)</f>
         <v>TỦ LẠNH</v>
       </c>
-      <c r="D3" s="38">
+      <c r="D3" s="39">
         <v>39731</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="33">
         <v>20</v>
       </c>
-      <c r="K3" s="34" t="s">
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="K3" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="L3" s="34" t="s">
+      <c r="L3" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="M3" s="34" t="s">
+      <c r="M3" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="N3" s="34" t="s">
+      <c r="N3" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="P3" s="34" t="s">
+      <c r="P3" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="Q3" s="36" t="s">
+      <c r="Q3" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="R3" s="36" t="s">
+      <c r="R3" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="S3" s="36" t="s">
+      <c r="S3" s="35" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="31">
+      <c r="A4" s="33">
         <v>3</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="31" t="str">
+      <c r="C4" s="35" t="str">
         <f t="shared" si="0"/>
         <v>MÁY GIẶT</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="39">
         <v>39749</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="33">
         <v>10</v>
       </c>
-      <c r="K4" s="35">
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="K4" s="34">
         <v>39722</v>
       </c>
-      <c r="L4" s="34">
+      <c r="L4" s="33">
         <v>250</v>
       </c>
-      <c r="M4" s="34">
+      <c r="M4" s="33">
         <v>300</v>
       </c>
-      <c r="N4" s="34">
+      <c r="N4" s="33">
         <v>280</v>
       </c>
-      <c r="P4" s="34" t="s">
+      <c r="P4" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="Q4" s="36" t="s">
+      <c r="Q4" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="R4" s="36" t="s">
+      <c r="R4" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="S4" s="36" t="s">
+      <c r="S4" s="35" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="31">
+      <c r="A5" s="33">
         <v>4</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="C5" s="31" t="str">
+      <c r="C5" s="35" t="str">
         <f t="shared" si="0"/>
         <v>MÁY GIẶT</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="39">
         <v>39759</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="33">
         <v>5</v>
       </c>
-      <c r="K5" s="35">
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="K5" s="34">
         <v>39753</v>
       </c>
-      <c r="L5" s="34">
+      <c r="L5" s="33">
         <v>240</v>
       </c>
-      <c r="M5" s="34">
+      <c r="M5" s="33">
         <v>280</v>
       </c>
-      <c r="N5" s="34">
+      <c r="N5" s="33">
         <v>270</v>
       </c>
-      <c r="P5" s="34" t="s">
+      <c r="P5" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="Q5" s="37">
+      <c r="Q5" s="36">
         <v>0</v>
       </c>
-      <c r="R5" s="37">
+      <c r="R5" s="36">
         <v>0.05</v>
       </c>
-      <c r="S5" s="37">
+      <c r="S5" s="36">
         <v>0.1</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="31">
+      <c r="A6" s="33">
         <v>5</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="C6" s="31" t="str">
+      <c r="C6" s="35" t="str">
         <f t="shared" si="0"/>
         <v>TỦ LẠNH</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="39">
         <v>39766</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="33">
         <v>15</v>
       </c>
-      <c r="K6" s="35">
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="K6" s="34">
         <v>39783</v>
       </c>
-      <c r="L6" s="34">
+      <c r="L6" s="33">
         <v>210</v>
       </c>
-      <c r="M6" s="34">
+      <c r="M6" s="33">
         <v>250</v>
       </c>
-      <c r="N6" s="34">
+      <c r="N6" s="33">
         <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="31">
+      <c r="A7" s="33">
         <v>6</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="C7" s="31" t="str">
+      <c r="C7" s="35" t="str">
         <f t="shared" si="0"/>
         <v>TIVI</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="39">
         <v>39772</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="33">
         <v>20</v>
       </c>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="31">
+      <c r="A8" s="33">
         <v>7</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="C8" s="31" t="str">
+      <c r="C8" s="35" t="str">
         <f t="shared" si="0"/>
         <v>TIVI</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="39">
         <v>39784</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="33">
         <v>45</v>
       </c>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="31">
+      <c r="A9" s="33">
         <v>8</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="C9" s="31" t="str">
+      <c r="C9" s="35" t="str">
         <f t="shared" si="0"/>
         <v>TỦ LẠNH</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="39">
         <v>39803</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="33">
         <v>20</v>
       </c>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A10:E10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/BTH/Thuc_hanh_Excel_Co_ban.xlsx
+++ b/BTH/Thuc_hanh_Excel_Co_ban.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ThucHanhExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2351050041MaoDucHai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C469BE5-CEAA-4049-8BDF-90D8B18107CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BCF2293-0073-440E-9897-ED89538069CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15390" firstSheet="1" activeTab="6" xr2:uid="{8E08941F-1D49-4636-B2AE-37A49C149DBE}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15390" firstSheet="2" activeTab="8" xr2:uid="{8E08941F-1D49-4636-B2AE-37A49C149DBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="223">
   <si>
     <t>STT</t>
   </si>
@@ -559,6 +561,175 @@
   </si>
   <si>
     <t>TỔNG</t>
+  </si>
+  <si>
+    <t>TI VI</t>
+  </si>
+  <si>
+    <t>DOANH THU</t>
+  </si>
+  <si>
+    <t>THÁNG 10</t>
+  </si>
+  <si>
+    <t>THÁNG 11</t>
+  </si>
+  <si>
+    <t>THÁNG 12</t>
+  </si>
+  <si>
+    <t>TÊN KHÁCH HÀNG</t>
+  </si>
+  <si>
+    <t>MÃ SỐ</t>
+  </si>
+  <si>
+    <t>TÊN XE</t>
+  </si>
+  <si>
+    <t>THÀNH
+TIỀN</t>
+  </si>
+  <si>
+    <t>GIẢM
+GIÁ</t>
+  </si>
+  <si>
+    <t>CTY HOA HỒNG</t>
+  </si>
+  <si>
+    <t>XN MAY SAIGON</t>
+  </si>
+  <si>
+    <t>CTY NHẬT TÂN</t>
+  </si>
+  <si>
+    <t>XN GIÀY DA Q.1</t>
+  </si>
+  <si>
+    <t>XN IN Q.5</t>
+  </si>
+  <si>
+    <t>CTY PHÁT ĐẠT</t>
+  </si>
+  <si>
+    <t>CTY THỊNH PHÁT</t>
+  </si>
+  <si>
+    <t>XN IN KHẢI HOÀN</t>
+  </si>
+  <si>
+    <t>HVTA</t>
+  </si>
+  <si>
+    <t>TĐLA</t>
+  </si>
+  <si>
+    <t>TVTB</t>
+  </si>
+  <si>
+    <t>MNTB</t>
+  </si>
+  <si>
+    <t>HNTB</t>
+  </si>
+  <si>
+    <t>MĐLB</t>
+  </si>
+  <si>
+    <t>MVTA</t>
+  </si>
+  <si>
+    <t>TNTA</t>
+  </si>
+  <si>
+    <t>MÃ XE</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>TOYOTA</t>
+  </si>
+  <si>
+    <t>MERCEDES</t>
+  </si>
+  <si>
+    <t>HUYNDAI</t>
+  </si>
+  <si>
+    <t>MÃ ĐỊA PHƯƠNG</t>
+  </si>
+  <si>
+    <t>TỔNG THU</t>
+  </si>
+  <si>
+    <t>Công ty Du lịch QUÊ HƯƠNG</t>
+  </si>
+  <si>
+    <t>BÁO CÁO DOANH THU QUÝ 4/2008</t>
+  </si>
+  <si>
+    <t>MÃ DU LỊCH</t>
+  </si>
+  <si>
+    <t>ĐỊA ĐIỂM
+DU LỊCH</t>
+  </si>
+  <si>
+    <t>PHƯƠNG TIỆN
+LOẠI DV</t>
+  </si>
+  <si>
+    <t>PHỤ THU</t>
+  </si>
+  <si>
+    <t>TỔNG TIỀN</t>
+  </si>
+  <si>
+    <t>NTX1N</t>
+  </si>
+  <si>
+    <t>NTX1V</t>
+  </si>
+  <si>
+    <t>HNB2V</t>
+  </si>
+  <si>
+    <t>HNB1N</t>
+  </si>
+  <si>
+    <t>ĐLX1N</t>
+  </si>
+  <si>
+    <t>HNX1V</t>
+  </si>
+  <si>
+    <t>NTB2V</t>
+  </si>
+  <si>
+    <t>HNX2V</t>
+  </si>
+  <si>
+    <t>ĐLB2V</t>
+  </si>
+  <si>
+    <t>MÁY BAY</t>
+  </si>
+  <si>
+    <t>XE DU LỊCH</t>
+  </si>
+  <si>
+    <t>LOẠI 1</t>
+  </si>
+  <si>
+    <t>LOẠI 2</t>
   </si>
 </sst>
 </file>
@@ -567,7 +738,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="d/mm/yy"/>
+    <numFmt numFmtId="165" formatCode="d/mm/yy"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -713,25 +884,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -744,22 +903,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -771,17 +917,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -801,7 +941,37 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -810,6 +980,13 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -826,6 +1003,1966 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>BIỂU</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> ĐỒ SO SÁNH SỐ LƯỢNG BÁN HÀNG TRONG TỪNG THÁNG</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet7!$K$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet7!$L$13:$N$13</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>THÁNG 10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>THÁNG 11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>THÁNG 12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet7!$L$14:$N$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E2AB-4095-A5B7-FFC32C5D4855}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet7!$K$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet7!$L$13:$N$13</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>THÁNG 10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>THÁNG 11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>THÁNG 12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet7!$L$15:$N$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E2AB-4095-A5B7-FFC32C5D4855}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet7!$K$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet7!$L$13:$N$13</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>THÁNG 10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>THÁNG 11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>THÁNG 12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet7!$L$16:$N$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E2AB-4095-A5B7-FFC32C5D4855}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1089684159"/>
+        <c:axId val="1087663711"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1089684159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1087663711"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1087663711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1089684159"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>BIỂU</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> ĐỒ THỂ HIỆN TỔNG THU TỪNG ĐỊA PHƯƠNG</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet8!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TỔNG THU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet8!$B$23:$D$23</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>VT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NT</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ĐL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet8!$B$24:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6050000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7160000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4980000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-617F-477F-A063-4E07CE892B48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1821543583"/>
+        <c:axId val="1883303359"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1821543583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1883303359"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1883303359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1821543583"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>132522</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>177248</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>4970</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BED2973B-F8A5-A2C7-4858-0ADE838B8ADD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>374432</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>181961</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>282467</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>67661</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8C549CA-ACF1-280E-B6FF-6F33112FD37A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1143,177 +3280,177 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>50</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>60000</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <f>E3*D3*0.5%</f>
         <v>15000</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <f>D3*E3+F3</f>
         <v>3015000</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>40</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>100000</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <f>E4*D4*0.5%</f>
         <v>20000</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <f>D4*E4+F4</f>
         <v>4020000</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>4000</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>350</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <f>E5*D5*0.5%</f>
         <v>7000</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <f>D5*E5+F5</f>
         <v>1407000</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>150</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>3600</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <f>E6*D6*0.5%</f>
         <v>2700</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <f>D6*E6+F6</f>
         <v>542700</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>200</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>45000</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <f>E7*D7*0.5%</f>
         <v>45000</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <f>D7*E7+F7</f>
         <v>9045000</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="1"/>
+      <c r="B8" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="15">
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="9">
         <f>SUM(F3:F7)</f>
         <v>89700</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="9">
         <f>SUM(G3:G7)</f>
         <v>18029700</v>
       </c>
@@ -1348,22 +3485,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>400000</v>
       </c>
     </row>
@@ -1371,246 +3508,246 @@
       <c r="G3" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <v>830000</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>5.47</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>8</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>2000000</v>
       </c>
-      <c r="G5" s="2">
-        <f>$H$2*E5*50%</f>
+      <c r="G5" s="1">
+        <f t="shared" ref="G5:G11" si="0">$H$2*E5*50%</f>
         <v>1600000</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <f>($H$3*D5)+F5+G5+$H$2</f>
         <v>8540100</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>5.22</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>6</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>1800000</v>
       </c>
-      <c r="G6" s="2">
-        <f>$H$2*E6*50%</f>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
         <v>1200000</v>
       </c>
-      <c r="H6" s="2">
-        <f t="shared" ref="H6:H11" si="0">($H$3*D6)+F6+G6+$H$2</f>
+      <c r="H6" s="1">
+        <f t="shared" ref="H6:H11" si="1">($H$3*D6)+F6+G6+$H$2</f>
         <v>7732600</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>3.3</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>4</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>1500000</v>
       </c>
-      <c r="G7" s="2">
-        <f>$H$2*E7*50%</f>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
         <v>800000</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
+        <f t="shared" si="1"/>
+        <v>5439000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4.62</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1200000</v>
+      </c>
+      <c r="G8" s="1">
         <f t="shared" si="0"/>
-        <v>5439000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>4</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="2">
-        <v>4.62</v>
-      </c>
-      <c r="E8" s="2">
-        <v>3</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1200000</v>
-      </c>
-      <c r="G8" s="2">
-        <f>$H$2*E8*50%</f>
         <v>600000</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
+        <f t="shared" si="1"/>
+        <v>6034600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3.88</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="G9" s="1">
         <f t="shared" si="0"/>
-        <v>6034600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>5</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="2">
-        <v>3.88</v>
-      </c>
-      <c r="E9" s="2">
-        <v>2</v>
-      </c>
-      <c r="F9" s="2">
+        <v>400000</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="1"/>
+        <v>5020400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="1">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
         <v>1000000</v>
       </c>
-      <c r="G9" s="2">
-        <f>$H$2*E9*50%</f>
-        <v>400000</v>
-      </c>
-      <c r="H9" s="2">
+      <c r="G10" s="1">
         <f t="shared" si="0"/>
-        <v>5020400</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>6</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="12" t="s">
+        <v>200000</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="1"/>
+        <v>5733400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="2">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="D11" s="1">
+        <v>5.22</v>
+      </c>
+      <c r="E11" s="1">
         <v>1</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F11" s="1">
         <v>1000000</v>
       </c>
-      <c r="G10" s="2">
-        <f>$H$2*E10*50%</f>
+      <c r="G11" s="1">
+        <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-      <c r="H10" s="2">
-        <f t="shared" si="0"/>
-        <v>5733400</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>7</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="2">
-        <v>5.22</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1</v>
-      </c>
-      <c r="F11" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="G11" s="2">
-        <f>$H$2*E11*50%</f>
-        <v>200000</v>
-      </c>
-      <c r="H11" s="2">
-        <f t="shared" si="0"/>
+      <c r="H11" s="1">
+        <f t="shared" si="1"/>
         <v>5932600</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="13" t="s">
+      <c r="A12" s="1"/>
+      <c r="B12" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="15">
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="9">
         <f>SUM(G5:G11)</f>
         <v>5000000</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="9">
         <f>SUM(H5:H11)</f>
         <v>44432700</v>
       </c>
@@ -1644,278 +3781,278 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
       <c r="H2">
         <v>25000000</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>170000</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>24</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <f>IF(E4&lt;=24,D4*E4,D4*24+D4*(E4-24)*2)</f>
         <v>4080000</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="10">
         <f>($H$2-$F$11)/$E$11*E4</f>
         <v>546206.89655172417</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="10">
         <f>F4+G4</f>
         <v>4626206.8965517245</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>150000</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>22</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <f t="shared" ref="F5:F10" si="0">IF(E5&lt;=24,D5*E5,D5*24+D5*(E5-24)*2)</f>
         <v>3300000</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="10">
         <f t="shared" ref="G5:G10" si="1">($H$2-$F$11)/$E$11*E5</f>
         <v>500689.6551724138</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="10">
         <f t="shared" ref="H5:H10" si="2">F5+G5</f>
         <v>3800689.6551724137</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>130000</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>24</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <f t="shared" si="0"/>
         <v>3120000</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="10">
         <f t="shared" si="1"/>
         <v>546206.89655172417</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="10">
         <f t="shared" si="2"/>
         <v>3666206.8965517241</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>110000</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>25</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <f t="shared" si="0"/>
         <v>2860000</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="10">
         <f t="shared" si="1"/>
         <v>568965.51724137936</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="10">
         <f t="shared" si="2"/>
         <v>3428965.5172413792</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>100000</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>25</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <f t="shared" si="0"/>
         <v>2600000</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="10">
         <f t="shared" si="1"/>
         <v>568965.51724137936</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="10">
         <f t="shared" si="2"/>
         <v>3168965.5172413792</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>80000</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>28</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <f t="shared" si="0"/>
         <v>2560000</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="10">
         <f t="shared" si="1"/>
         <v>637241.37931034481</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="10">
         <f t="shared" si="2"/>
         <v>3197241.3793103448</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>90000</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>26</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <f t="shared" si="0"/>
         <v>2520000</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="10">
         <f t="shared" si="1"/>
         <v>591724.13793103455</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="10">
         <f t="shared" si="2"/>
         <v>3111724.1379310344</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="18">
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="1">
         <f>SUM(E4:E10)</f>
         <v>174</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <f>SUM(F4:F10)</f>
         <v>21040000</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <f t="shared" ref="G11:H11" si="3">SUM(G4:G10)</f>
         <v>3960000</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <f t="shared" si="3"/>
         <v>24999999.999999996</v>
       </c>
@@ -1949,385 +4086,385 @@
     <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+    </row>
+    <row r="3" spans="1:8" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="14" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>4</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>8</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="15">
         <f>(C4*2+D4)/3</f>
         <v>5.333333333333333</v>
       </c>
-      <c r="F4" s="2" t="str">
+      <c r="F4" s="1" t="str">
         <f>IF(OR(E4&lt;5,C4&lt;3,D4&lt;3),"Rớt","Đậu")</f>
         <v>Đậu</v>
       </c>
-      <c r="G4" s="2" t="str">
+      <c r="G4" s="1" t="str">
         <f>IF(E4&lt;5,"Yếu",IF(E4&lt;7,"Trung bình",IF(E4&lt;=8,"Khá","Giỏi")))</f>
         <v>Trung bình</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <f>RANK(E4,$E$4:$E$13,0)</f>
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>7</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>7</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="15">
         <f t="shared" ref="E5:E13" si="0">(C5*2+D5)/3</f>
         <v>7</v>
       </c>
-      <c r="F5" s="2" t="str">
+      <c r="F5" s="1" t="str">
         <f t="shared" ref="F5:F13" si="1">IF(OR(E5&lt;5,C5&lt;3,D5&lt;3),"Rớt","Đậu")</f>
         <v>Đậu</v>
       </c>
-      <c r="G5" s="2" t="str">
+      <c r="G5" s="1" t="str">
         <f t="shared" ref="G5:G13" si="2">IF(E5&lt;5,"Yếu",IF(E5&lt;7,"Trung bình",IF(E5&lt;=8,"Khá","Giỏi")))</f>
         <v>Khá</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <f t="shared" ref="H5:H13" si="3">RANK(E5,$E$4:$E$13,0)</f>
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>7</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>2</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="15">
         <f t="shared" si="0"/>
         <v>5.333333333333333</v>
       </c>
-      <c r="F6" s="2" t="str">
+      <c r="F6" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Rớt</v>
       </c>
-      <c r="G6" s="2" t="str">
+      <c r="G6" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Trung bình</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>6</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>5</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="15">
         <f t="shared" si="0"/>
         <v>5.666666666666667</v>
       </c>
-      <c r="F7" s="2" t="str">
+      <c r="F7" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Đậu</v>
       </c>
-      <c r="G7" s="2" t="str">
+      <c r="G7" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Trung bình</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>5</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>4</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="15">
         <f t="shared" si="0"/>
         <v>4.666666666666667</v>
       </c>
-      <c r="F8" s="2" t="str">
+      <c r="F8" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Rớt</v>
       </c>
-      <c r="G8" s="2" t="str">
+      <c r="G8" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Yếu</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>9</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>10</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="15">
         <f t="shared" si="0"/>
         <v>9.3333333333333339</v>
       </c>
-      <c r="F9" s="2" t="str">
+      <c r="F9" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Đậu</v>
       </c>
-      <c r="G9" s="2" t="str">
+      <c r="G9" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Giỏi</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>6</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>6</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F10" s="2" t="str">
+      <c r="F10" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Đậu</v>
       </c>
-      <c r="G10" s="2" t="str">
+      <c r="G10" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Trung bình</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>8</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>9</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="15">
         <f t="shared" si="0"/>
         <v>8.3333333333333339</v>
       </c>
-      <c r="F11" s="2" t="str">
+      <c r="F11" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Đậu</v>
       </c>
-      <c r="G11" s="2" t="str">
+      <c r="G11" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Giỏi</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>8</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>7</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="15">
         <f t="shared" si="0"/>
         <v>7.666666666666667</v>
       </c>
-      <c r="F12" s="2" t="str">
+      <c r="F12" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Đậu</v>
       </c>
-      <c r="G12" s="2" t="str">
+      <c r="G12" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Khá</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="1">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>9</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>6</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="15">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F13" s="2" t="str">
+      <c r="F13" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Đậu</v>
       </c>
-      <c r="G13" s="2" t="str">
+      <c r="G13" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Khá</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="1">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="26">
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="16">
         <f>AVERAGE(E4:E13)</f>
         <v>6.7333333333333343</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="20">
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="11">
         <f>MAX(E4:E13)</f>
         <v>9.3333333333333339</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="20">
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="11">
         <f>MIN(E4:E13)</f>
         <v>4.666666666666667</v>
       </c>
@@ -2368,368 +4505,368 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-    </row>
-    <row r="2" spans="1:15" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+    </row>
+    <row r="2" spans="1:15" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="M2" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="N2" s="27" t="s">
+      <c r="N2" s="17" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D3" s="18">
         <v>40360</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="18">
         <v>40388</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="19">
         <f>INT(DATEDIF(D3,E3,"D")/7)</f>
         <v>4</v>
       </c>
-      <c r="G3" s="30">
+      <c r="G3" s="19">
         <f>MOD(DATEDIF(D3,E3,"D"),7)</f>
         <v>0</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <f>VLOOKUP(C3,$L$3:$N$5,2,FALSE)*F3</f>
         <v>380</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <f>VLOOKUP(C3,$L$3:$N$5,3,FALSE)*G3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="1">
         <f>H3+I3</f>
         <v>380</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="1">
         <v>130</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="18">
         <v>40361</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="18">
         <v>40378</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="19">
         <f t="shared" ref="F4:F9" si="0">INT(DATEDIF(D4,E4,"D")/7)</f>
         <v>2</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="19">
         <f t="shared" ref="G4:G9" si="1">MOD(DATEDIF(D4,E4,"D"),7)</f>
         <v>3</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <f>VLOOKUP(C4,$L$3:$N$5,2,FALSE)*F4</f>
         <v>260</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <f t="shared" ref="I4:I9" si="2">VLOOKUP(C4,$L$3:$N$5,3,FALSE)*G4</f>
         <v>60</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
         <f t="shared" ref="J4:J9" si="3">H4+I4</f>
         <v>320</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="1">
         <v>95</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="1">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="18">
         <v>40364</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="18">
         <v>40372</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H5" s="2">
-        <f t="shared" ref="H4:H9" si="4">VLOOKUP(C5,$L$3:$N$5,2,FALSE)*F5</f>
+      <c r="H5" s="1">
+        <f t="shared" ref="H5:H9" si="4">VLOOKUP(C5,$L$3:$N$5,2,FALSE)*F5</f>
         <v>130</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <f t="shared" si="3"/>
         <v>150</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="1">
         <v>65</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="18">
         <v>40366</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="18">
         <v>40384</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="19">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="19">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <f t="shared" si="4"/>
         <v>130</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1">
         <f>H6+I6</f>
         <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="A7" s="8">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="18">
         <v>40367</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="18">
         <v>40379</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="19">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <f t="shared" si="4"/>
         <v>95</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
         <f t="shared" si="3"/>
         <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="A8" s="8">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="18">
         <v>40368</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="18">
         <v>40380</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="19">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <f t="shared" si="4"/>
         <v>65</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="1">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="1">
         <f t="shared" si="3"/>
         <v>115</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="N8" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="O8" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="A9" s="8">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="18">
         <v>40369</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="18">
         <v>40384</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="19">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G9" s="30">
+      <c r="G9" s="19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="1">
         <f t="shared" si="4"/>
         <v>190</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="1">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="1">
         <f t="shared" si="3"/>
         <v>205</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L9" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="1">
         <f>SUMIF($C$3:$C$9,"A",J3:J9)</f>
         <v>470</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9" s="1">
         <f>SUMIF($C$3:$C$9,"B",J3:J9)</f>
         <v>755</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O9" s="1">
         <f>SUMIF($C$3:$C$9,"C",J3:J9)</f>
         <v>285</v>
       </c>
@@ -2766,480 +4903,480 @@
     <col min="17" max="19" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="13" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E3" s="2" t="str">
-        <f>VLOOKUP(LEFT(D3,2),$J$4:$N$6,2,FALSE)</f>
+      <c r="E3" s="1" t="str">
+        <f t="shared" ref="E3:E14" si="0">VLOOKUP(LEFT(D3,2),$J$4:$N$6,2,FALSE)</f>
         <v>ĐÀ LẠT</v>
       </c>
-      <c r="F3" s="2">
-        <f>VLOOKUP(LEFT(D3,2),$J$4:$N$6,3,FALSE)</f>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F14" si="1">VLOOKUP(LEFT(D3,2),$J$4:$N$6,3,FALSE)</f>
         <v>250000</v>
       </c>
-      <c r="G3" s="2">
-        <f>VLOOKUP(LEFT(D3,2),$J$4:$N$6,IF(RIGHT(D3,1)="A",4,5),FALSE)</f>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G14" si="2">VLOOKUP(LEFT(D3,2),$J$4:$N$6,IF(RIGHT(D3,1)="A",4,5),FALSE)</f>
         <v>550000</v>
       </c>
-      <c r="H3" s="2">
-        <f>F3+G3</f>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H14" si="3">F3+G3</f>
         <v>800000</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P3" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Q3" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="R3" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="S3" s="1" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E4" s="2" t="str">
-        <f>VLOOKUP(LEFT(D4,2),$J$4:$N$6,2,FALSE)</f>
+      <c r="E4" s="1" t="str">
+        <f t="shared" si="0"/>
         <v>ĐÀ LẠT</v>
       </c>
-      <c r="F4" s="2">
-        <f>VLOOKUP(LEFT(D4,2),$J$4:$N$6,3,FALSE)</f>
+      <c r="F4" s="1">
+        <f t="shared" si="1"/>
         <v>250000</v>
       </c>
-      <c r="G4" s="2">
-        <f>VLOOKUP(LEFT(D4,2),$J$4:$N$6,IF(RIGHT(D4,1)="A",4,5),FALSE)</f>
+      <c r="G4" s="1">
+        <f t="shared" si="2"/>
         <v>600000</v>
       </c>
-      <c r="H4" s="2">
-        <f>F4+G4</f>
+      <c r="H4" s="1">
+        <f t="shared" si="3"/>
         <v>850000</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="1">
         <v>100000</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="1">
         <v>500000</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="1">
         <v>450000</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="P4" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4" s="1">
         <f>SUMIF($E$3:$E$14,"VŨNG TÀU",$H$3:$H$14)</f>
         <v>2900000</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R4" s="1">
         <f>SUMIF($E$3:$E$14,"NHA TRANG",$H$3:$H$14)</f>
         <v>2900000</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S4" s="1">
         <f>SUMIF($E$3:$E$14,"ĐÀ LẠT",$H$3:$H$14)</f>
         <v>3250000</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>9</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E5" s="2" t="str">
-        <f>VLOOKUP(LEFT(D5,2),$J$4:$N$6,2,FALSE)</f>
+      <c r="E5" s="1" t="str">
+        <f t="shared" si="0"/>
         <v>ĐÀ LẠT</v>
       </c>
-      <c r="F5" s="2">
-        <f>VLOOKUP(LEFT(D5,2),$J$4:$N$6,3,FALSE)</f>
+      <c r="F5" s="1">
+        <f t="shared" si="1"/>
         <v>250000</v>
       </c>
-      <c r="G5" s="2">
-        <f>VLOOKUP(LEFT(D5,2),$J$4:$N$6,IF(RIGHT(D5,1)="A",4,5),FALSE)</f>
+      <c r="G5" s="1">
+        <f t="shared" si="2"/>
         <v>550000</v>
       </c>
-      <c r="H5" s="2">
-        <f>F5+G5</f>
+      <c r="H5" s="1">
+        <f t="shared" si="3"/>
         <v>800000</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="1">
         <v>300000</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="1">
         <v>700000</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="1">
         <v>650000</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>11</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E6" s="2" t="str">
-        <f>VLOOKUP(LEFT(D6,2),$J$4:$N$6,2,FALSE)</f>
+      <c r="E6" s="1" t="str">
+        <f t="shared" si="0"/>
         <v>ĐÀ LẠT</v>
       </c>
-      <c r="F6" s="2">
-        <f>VLOOKUP(LEFT(D6,2),$J$4:$N$6,3,FALSE)</f>
+      <c r="F6" s="1">
+        <f t="shared" si="1"/>
         <v>250000</v>
       </c>
-      <c r="G6" s="2">
-        <f>VLOOKUP(LEFT(D6,2),$J$4:$N$6,IF(RIGHT(D6,1)="A",4,5),FALSE)</f>
+      <c r="G6" s="1">
+        <f t="shared" si="2"/>
         <v>550000</v>
       </c>
-      <c r="H6" s="2">
-        <f>F6+G6</f>
+      <c r="H6" s="1">
+        <f t="shared" si="3"/>
         <v>800000</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="1">
         <v>250000</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="1">
         <v>600000</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="1">
         <v>550000</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E7" s="2" t="str">
-        <f>VLOOKUP(LEFT(D7,2),$J$4:$N$6,2,FALSE)</f>
+      <c r="E7" s="1" t="str">
+        <f t="shared" si="0"/>
         <v>NHA TRANG</v>
       </c>
-      <c r="F7" s="2">
-        <f>VLOOKUP(LEFT(D7,2),$J$4:$N$6,3,FALSE)</f>
+      <c r="F7" s="1">
+        <f t="shared" si="1"/>
         <v>300000</v>
       </c>
-      <c r="G7" s="2">
-        <f>VLOOKUP(LEFT(D7,2),$J$4:$N$6,IF(RIGHT(D7,1)="A",4,5),FALSE)</f>
+      <c r="G7" s="1">
+        <f t="shared" si="2"/>
         <v>650000</v>
       </c>
-      <c r="H7" s="2">
-        <f>F7+G7</f>
+      <c r="H7" s="1">
+        <f t="shared" si="3"/>
         <v>950000</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E8" s="2" t="str">
-        <f>VLOOKUP(LEFT(D8,2),$J$4:$N$6,2,FALSE)</f>
+      <c r="E8" s="1" t="str">
+        <f t="shared" si="0"/>
         <v>NHA TRANG</v>
       </c>
-      <c r="F8" s="2">
-        <f>VLOOKUP(LEFT(D8,2),$J$4:$N$6,3,FALSE)</f>
+      <c r="F8" s="1">
+        <f t="shared" si="1"/>
         <v>300000</v>
       </c>
-      <c r="G8" s="2">
-        <f>VLOOKUP(LEFT(D8,2),$J$4:$N$6,IF(RIGHT(D8,1)="A",4,5),FALSE)</f>
+      <c r="G8" s="1">
+        <f t="shared" si="2"/>
         <v>650000</v>
       </c>
-      <c r="H8" s="2">
-        <f>F8+G8</f>
+      <c r="H8" s="1">
+        <f t="shared" si="3"/>
         <v>950000</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>10</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E9" s="2" t="str">
-        <f>VLOOKUP(LEFT(D9,2),$J$4:$N$6,2,FALSE)</f>
+      <c r="E9" s="1" t="str">
+        <f t="shared" si="0"/>
         <v>NHA TRANG</v>
       </c>
-      <c r="F9" s="2">
-        <f>VLOOKUP(LEFT(D9,2),$J$4:$N$6,3,FALSE)</f>
+      <c r="F9" s="1">
+        <f t="shared" si="1"/>
         <v>300000</v>
       </c>
-      <c r="G9" s="2">
-        <f>VLOOKUP(LEFT(D9,2),$J$4:$N$6,IF(RIGHT(D9,1)="A",4,5),FALSE)</f>
+      <c r="G9" s="1">
+        <f t="shared" si="2"/>
         <v>700000</v>
       </c>
-      <c r="H9" s="2">
-        <f>F9+G9</f>
+      <c r="H9" s="1">
+        <f t="shared" si="3"/>
         <v>1000000</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>1</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E10" s="2" t="str">
-        <f>VLOOKUP(LEFT(D10,2),$J$4:$N$6,2,FALSE)</f>
+      <c r="E10" s="1" t="str">
+        <f t="shared" si="0"/>
         <v>VŨNG TÀU</v>
       </c>
-      <c r="F10" s="2">
-        <f>VLOOKUP(LEFT(D10,2),$J$4:$N$6,3,FALSE)</f>
+      <c r="F10" s="1">
+        <f t="shared" si="1"/>
         <v>100000</v>
       </c>
-      <c r="G10" s="2">
-        <f>VLOOKUP(LEFT(D10,2),$J$4:$N$6,IF(RIGHT(D10,1)="A",4,5),FALSE)</f>
+      <c r="G10" s="1">
+        <f t="shared" si="2"/>
         <v>500000</v>
       </c>
-      <c r="H10" s="2">
-        <f>F10+G10</f>
+      <c r="H10" s="1">
+        <f t="shared" si="3"/>
         <v>600000</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>5</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E11" s="2" t="str">
-        <f>VLOOKUP(LEFT(D11,2),$J$4:$N$6,2,FALSE)</f>
+      <c r="E11" s="1" t="str">
+        <f t="shared" si="0"/>
         <v>VŨNG TÀU</v>
       </c>
-      <c r="F11" s="2">
-        <f>VLOOKUP(LEFT(D11,2),$J$4:$N$6,3,FALSE)</f>
+      <c r="F11" s="1">
+        <f t="shared" si="1"/>
         <v>100000</v>
       </c>
-      <c r="G11" s="2">
-        <f>VLOOKUP(LEFT(D11,2),$J$4:$N$6,IF(RIGHT(D11,1)="A",4,5),FALSE)</f>
+      <c r="G11" s="1">
+        <f t="shared" si="2"/>
         <v>450000</v>
       </c>
-      <c r="H11" s="2">
-        <f>F11+G11</f>
+      <c r="H11" s="1">
+        <f t="shared" si="3"/>
         <v>550000</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>6</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E12" s="2" t="str">
-        <f>VLOOKUP(LEFT(D12,2),$J$4:$N$6,2,FALSE)</f>
+      <c r="E12" s="1" t="str">
+        <f t="shared" si="0"/>
         <v>VŨNG TÀU</v>
       </c>
-      <c r="F12" s="2">
-        <f>VLOOKUP(LEFT(D12,2),$J$4:$N$6,3,FALSE)</f>
+      <c r="F12" s="1">
+        <f t="shared" si="1"/>
         <v>100000</v>
       </c>
-      <c r="G12" s="2">
-        <f>VLOOKUP(LEFT(D12,2),$J$4:$N$6,IF(RIGHT(D12,1)="A",4,5),FALSE)</f>
+      <c r="G12" s="1">
+        <f t="shared" si="2"/>
         <v>500000</v>
       </c>
-      <c r="H12" s="2">
-        <f>F12+G12</f>
+      <c r="H12" s="1">
+        <f t="shared" si="3"/>
         <v>600000</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>8</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E13" s="2" t="str">
-        <f>VLOOKUP(LEFT(D13,2),$J$4:$N$6,2,FALSE)</f>
+      <c r="E13" s="1" t="str">
+        <f t="shared" si="0"/>
         <v>VŨNG TÀU</v>
       </c>
-      <c r="F13" s="2">
-        <f>VLOOKUP(LEFT(D13,2),$J$4:$N$6,3,FALSE)</f>
+      <c r="F13" s="1">
+        <f t="shared" si="1"/>
         <v>100000</v>
       </c>
-      <c r="G13" s="2">
-        <f>VLOOKUP(LEFT(D13,2),$J$4:$N$6,IF(RIGHT(D13,1)="A",4,5),FALSE)</f>
+      <c r="G13" s="1">
+        <f t="shared" si="2"/>
         <v>450000</v>
       </c>
-      <c r="H13" s="2">
-        <f>F13+G13</f>
+      <c r="H13" s="1">
+        <f t="shared" si="3"/>
         <v>550000</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E14" s="2" t="str">
-        <f>VLOOKUP(LEFT(D14,2),$J$4:$N$6,2,FALSE)</f>
+      <c r="E14" s="1" t="str">
+        <f t="shared" si="0"/>
         <v>VŨNG TÀU</v>
       </c>
-      <c r="F14" s="2">
-        <f>VLOOKUP(LEFT(D14,2),$J$4:$N$6,3,FALSE)</f>
+      <c r="F14" s="1">
+        <f t="shared" si="1"/>
         <v>100000</v>
       </c>
-      <c r="G14" s="2">
-        <f>VLOOKUP(LEFT(D14,2),$J$4:$N$6,IF(RIGHT(D14,1)="A",4,5),FALSE)</f>
+      <c r="G14" s="1">
+        <f t="shared" si="2"/>
         <v>500000</v>
       </c>
-      <c r="H14" s="2">
-        <f>F14+G14</f>
+      <c r="H14" s="1">
+        <f t="shared" si="3"/>
         <v>600000</v>
       </c>
     </row>
-    <row r="18" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H14">
     <sortCondition ref="E3:E14"/>
@@ -3250,341 +5387,1318 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1436D55-FB4C-49E7-BE1C-C65F411BD20A}">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="9.140625" style="31"/>
-    <col min="11" max="11" width="11.42578125" style="31" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="9.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="31"/>
-    <col min="16" max="16" width="12.85546875" style="31" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="31"/>
-    <col min="18" max="18" width="9.85546875" style="31" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.5703125" style="31" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="31"/>
+    <col min="1" max="1" width="9.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="9.140625" style="20"/>
+    <col min="11" max="11" width="13.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="10.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="20"/>
+    <col min="16" max="16" width="12.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="20"/>
+    <col min="18" max="18" width="9.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="32" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:19" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="27" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="33">
+      <c r="A2" s="22">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="C2" s="35" t="str">
+      <c r="C2" s="24" t="str">
         <f>HLOOKUP(B2,$Q$3:$S$4,2,0)</f>
         <v>TIVI</v>
       </c>
-      <c r="D2" s="39">
+      <c r="D2" s="28">
         <v>39726</v>
       </c>
-      <c r="E2" s="33">
+      <c r="E2" s="22">
         <v>30</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="K2" s="31" t="s">
+      <c r="F2" s="22">
+        <f>HLOOKUP(B2, $K$3:$N$6,IF(MONTH(D2)=10,2,IF(MONTH(D2)=11,3,4)),0)*E2</f>
+        <v>7500</v>
+      </c>
+      <c r="G2" s="22">
+        <f>HLOOKUP(B2, $P$3:$S$5,3,0)*F2</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="22">
+        <f>IF(MONTH(D2)=10,1%,IF(MONTH(D2)=11,2%,3%))*F2</f>
+        <v>75</v>
+      </c>
+      <c r="I2" s="22">
+        <f>F2-G2-H2</f>
+        <v>7425</v>
+      </c>
+      <c r="K2" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="P2" s="31" t="s">
+      <c r="P2" s="20" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="33">
+      <c r="A3" s="22">
         <v>2</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="C3" s="35" t="str">
+      <c r="C3" s="24" t="str">
         <f t="shared" ref="C3:C9" si="0">HLOOKUP(B3,$Q$3:$S$4,2,0)</f>
         <v>TỦ LẠNH</v>
       </c>
-      <c r="D3" s="39">
+      <c r="D3" s="28">
         <v>39731</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="22">
         <v>20</v>
       </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="K3" s="33" t="s">
+      <c r="F3" s="22">
+        <f t="shared" ref="F3:F9" si="1">HLOOKUP(B3, $K$3:$N$6,IF(MONTH(D3)=10,2,IF(MONTH(D3)=11,3,4)),0)*E3</f>
+        <v>6000</v>
+      </c>
+      <c r="G3" s="22">
+        <f t="shared" ref="G3:G9" si="2">HLOOKUP(B3, $P$3:$S$5,3,0)*F3</f>
+        <v>300</v>
+      </c>
+      <c r="H3" s="22">
+        <f t="shared" ref="H3:H9" si="3">IF(MONTH(D3)=10,1%,IF(MONTH(D3)=11,2%,3%))*F3</f>
+        <v>60</v>
+      </c>
+      <c r="I3" s="22">
+        <f t="shared" ref="I3:I9" si="4">F3-G3-H3</f>
+        <v>5640</v>
+      </c>
+      <c r="K3" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="L3" s="33" t="s">
+      <c r="L3" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="M3" s="33" t="s">
+      <c r="M3" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="N3" s="33" t="s">
+      <c r="N3" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="P3" s="33" t="s">
+      <c r="P3" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="Q3" s="35" t="s">
+      <c r="Q3" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="R3" s="35" t="s">
+      <c r="R3" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="S3" s="35" t="s">
+      <c r="S3" s="24" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="33">
+      <c r="A4" s="22">
         <v>3</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="35" t="str">
+      <c r="C4" s="24" t="str">
         <f t="shared" si="0"/>
         <v>MÁY GIẶT</v>
       </c>
-      <c r="D4" s="39">
+      <c r="D4" s="28">
         <v>39749</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="22">
         <v>10</v>
       </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="K4" s="34">
+      <c r="F4" s="22">
+        <f t="shared" si="1"/>
+        <v>2800</v>
+      </c>
+      <c r="G4" s="22">
+        <f t="shared" si="2"/>
+        <v>280</v>
+      </c>
+      <c r="H4" s="22">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="I4" s="22">
+        <f t="shared" si="4"/>
+        <v>2492</v>
+      </c>
+      <c r="K4" s="23">
         <v>39722</v>
       </c>
-      <c r="L4" s="33">
+      <c r="L4" s="22">
         <v>250</v>
       </c>
-      <c r="M4" s="33">
+      <c r="M4" s="22">
         <v>300</v>
       </c>
-      <c r="N4" s="33">
+      <c r="N4" s="22">
         <v>280</v>
       </c>
-      <c r="P4" s="33" t="s">
+      <c r="P4" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="Q4" s="35" t="s">
+      <c r="Q4" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="R4" s="35" t="s">
+      <c r="R4" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="S4" s="35" t="s">
+      <c r="S4" s="24" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="33">
+      <c r="A5" s="22">
         <v>4</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="C5" s="35" t="str">
+      <c r="C5" s="24" t="str">
         <f t="shared" si="0"/>
         <v>MÁY GIẶT</v>
       </c>
-      <c r="D5" s="39">
+      <c r="D5" s="28">
         <v>39759</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="22">
         <v>5</v>
       </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="K5" s="34">
+      <c r="F5" s="22">
+        <f t="shared" si="1"/>
+        <v>1350</v>
+      </c>
+      <c r="G5" s="22">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+      <c r="H5" s="22">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="I5" s="22">
+        <f t="shared" si="4"/>
+        <v>1188</v>
+      </c>
+      <c r="K5" s="23">
         <v>39753</v>
       </c>
-      <c r="L5" s="33">
+      <c r="L5" s="22">
         <v>240</v>
       </c>
-      <c r="M5" s="33">
+      <c r="M5" s="22">
         <v>280</v>
       </c>
-      <c r="N5" s="33">
+      <c r="N5" s="22">
         <v>270</v>
       </c>
-      <c r="P5" s="33" t="s">
+      <c r="P5" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="Q5" s="36">
+      <c r="Q5" s="25">
         <v>0</v>
       </c>
-      <c r="R5" s="36">
+      <c r="R5" s="25">
         <v>0.05</v>
       </c>
-      <c r="S5" s="36">
+      <c r="S5" s="25">
         <v>0.1</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="33">
+      <c r="A6" s="22">
         <v>5</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="C6" s="35" t="str">
+      <c r="C6" s="24" t="str">
         <f t="shared" si="0"/>
         <v>TỦ LẠNH</v>
       </c>
-      <c r="D6" s="39">
+      <c r="D6" s="28">
         <v>39766</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="22">
         <v>15</v>
       </c>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="K6" s="34">
+      <c r="F6" s="22">
+        <f t="shared" si="1"/>
+        <v>4200</v>
+      </c>
+      <c r="G6" s="22">
+        <f t="shared" si="2"/>
+        <v>210</v>
+      </c>
+      <c r="H6" s="22">
+        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="I6" s="22">
+        <f t="shared" si="4"/>
+        <v>3906</v>
+      </c>
+      <c r="K6" s="23">
         <v>39783</v>
       </c>
-      <c r="L6" s="33">
+      <c r="L6" s="22">
         <v>210</v>
       </c>
-      <c r="M6" s="33">
+      <c r="M6" s="22">
         <v>250</v>
       </c>
-      <c r="N6" s="33">
+      <c r="N6" s="22">
         <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="33">
+      <c r="A7" s="22">
         <v>6</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="C7" s="35" t="str">
+      <c r="C7" s="24" t="str">
         <f t="shared" si="0"/>
         <v>TIVI</v>
       </c>
-      <c r="D7" s="39">
+      <c r="D7" s="28">
         <v>39772</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="22">
         <v>20</v>
       </c>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
+      <c r="F7" s="22">
+        <f t="shared" si="1"/>
+        <v>4800</v>
+      </c>
+      <c r="G7" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="22">
+        <f t="shared" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="I7" s="22">
+        <f t="shared" si="4"/>
+        <v>4704</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="33">
+      <c r="A8" s="22">
         <v>7</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="C8" s="35" t="str">
+      <c r="C8" s="24" t="str">
         <f t="shared" si="0"/>
         <v>TIVI</v>
       </c>
-      <c r="D8" s="39">
+      <c r="D8" s="28">
         <v>39784</v>
       </c>
-      <c r="E8" s="33">
+      <c r="E8" s="22">
         <v>45</v>
       </c>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
+      <c r="F8" s="22">
+        <f t="shared" si="1"/>
+        <v>9450</v>
+      </c>
+      <c r="G8" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="22">
+        <f t="shared" si="3"/>
+        <v>283.5</v>
+      </c>
+      <c r="I8" s="22">
+        <f t="shared" si="4"/>
+        <v>9166.5</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="33">
+      <c r="A9" s="22">
         <v>8</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="C9" s="35" t="str">
+      <c r="C9" s="24" t="str">
         <f t="shared" si="0"/>
         <v>TỦ LẠNH</v>
       </c>
-      <c r="D9" s="39">
+      <c r="D9" s="28">
         <v>39803</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="22">
         <v>20</v>
       </c>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
+      <c r="F9" s="22">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="G9" s="22">
+        <f t="shared" si="2"/>
+        <v>250</v>
+      </c>
+      <c r="H9" s="22">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+      <c r="I9" s="22">
+        <f t="shared" si="4"/>
+        <v>4600</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="39" t="s">
         <v>167</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="22">
+        <f>SUM(F2:F9)</f>
+        <v>41100</v>
+      </c>
+      <c r="G10" s="22">
+        <f t="shared" ref="G10:I10" si="5">SUM(G2:G9)</f>
+        <v>1175</v>
+      </c>
+      <c r="H10" s="22">
+        <f t="shared" si="5"/>
+        <v>803.5</v>
+      </c>
+      <c r="I10" s="22">
+        <f t="shared" si="5"/>
+        <v>39121.5</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="M10" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="N10" s="22" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="K11" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="L11" s="22">
+        <f ca="1">SUMIF($C$2:$I$9,"TIVI",$I$2:$I$9)</f>
+        <v>21295.5</v>
+      </c>
+      <c r="M11" s="22">
+        <f ca="1">SUMIF($C$2:$I$9,"TỦ LẠNH",$I$2:$I$9)</f>
+        <v>14146</v>
+      </c>
+      <c r="N11" s="22">
+        <f ca="1">SUMIF($C$2:$I$9,"MÁY GIẶT",$I$2:$I$9)</f>
+        <v>3680</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="K13" s="22"/>
+      <c r="L13" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="M13" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="N13" s="22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="K14" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="L14" s="22">
+        <f>SUMIFS($E$2:$E$9,$B$2:$B$9,"TV",$D$2:$D$9,"&gt;=1/10/2008",$D$2:$D$9,"&lt;1/11/2008")</f>
+        <v>30</v>
+      </c>
+      <c r="M14" s="22">
+        <f>SUMIFS($E$2:$E$9,$B$2:$B$9,"TV",$D$2:$D$9,"&gt;=1/11/2008",$D$2:$D$9,"&lt;1/12/2008")</f>
+        <v>20</v>
+      </c>
+      <c r="N14" s="22">
+        <f>SUMIFS($E$2:$E$9,$B$2:$B$9,"TV",$D$2:$D$9,"&gt;=1/12/2008",$D$2:$D$9,"&lt;1/1/2009")</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="K15" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="L15" s="22">
+        <f>SUMIFS($E$2:$E$9,$B$2:$B$9,"TL",$D$2:$D$9,"&gt;=1/10/2008",$D$2:$D$9,"&lt;1/11/2008")</f>
+        <v>20</v>
+      </c>
+      <c r="M15" s="22">
+        <f>SUMIFS($E$2:$E$9,$B$2:$B$9,"TL",$D$2:$D$9,"&gt;=1/11/2008",$D$2:$D$9,"&lt;1/12/2008")</f>
+        <v>15</v>
+      </c>
+      <c r="N15" s="22">
+        <f>SUMIFS($E$2:$E$9,$B$2:$B$9,"TL",$D$2:$D$9,"&gt;=1/12/2008",$D$2:$D$9,"&lt;1/1/2009")</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="K16" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="L16" s="22">
+        <f>SUMIFS($E$2:$E$9,$B$2:$B$9,"MG",$D$2:$D$9,"&gt;=1/10/2008",$D$2:$D$9,"&lt;1/11/2008")</f>
+        <v>10</v>
+      </c>
+      <c r="M16" s="22">
+        <f>SUMIFS($E$2:$E$9,$B$2:$B$9,"MG",$D$2:$D$9,"&gt;=1/11/2008",$D$2:$D$9,"&lt;1/12/2008")</f>
+        <v>5</v>
+      </c>
+      <c r="N16" s="22">
+        <f>SUMIFS($E$2:$E$9,$B$2:$B$9,"MG",$D$2:$D$9,"&gt;=1/12/2008",$D$2:$D$9,"&lt;1/1/2009")</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A10:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51EF6687-B1DB-47EC-8C21-F6B5C3D6CE9E}">
+  <dimension ref="A1:O24"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C4" s="1">
+        <v>50</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <f>VLOOKUP(LEFT(D4,1),$A$15:$E$17,2,0)</f>
+        <v>HUYNDAI</v>
+      </c>
+      <c r="F4" s="1" t="str">
+        <f>HLOOKUP(MID(D4,2,2),$B$20:$D$21,2,0)</f>
+        <v>VŨNG TÀU</v>
+      </c>
+      <c r="G4" s="1">
+        <f>VLOOKUP(LEFT(D4,1),$A$14:$E$17,IF(MID(D4,2,2)="VT",3,IF(MID(D4,2,2)="NT",4,5)),0)*C4</f>
+        <v>2000000</v>
+      </c>
+      <c r="H4" s="1">
+        <f>IF(RIGHT(D4,1)="A",0,10%*G4)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <f>G4-H4</f>
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="1">
+        <v>50</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <f>VLOOKUP(LEFT(D5,1),$A$15:$E$17,2,0)</f>
+        <v>HUYNDAI</v>
+      </c>
+      <c r="F5" s="1" t="str">
+        <f>HLOOKUP(MID(D5,2,2),$B$20:$D$21,2,0)</f>
+        <v>NHA TRANG</v>
+      </c>
+      <c r="G5" s="1">
+        <f>VLOOKUP(LEFT(D5,1),$A$14:$E$17,IF(MID(D5,2,2)="VT",3,IF(MID(D5,2,2)="NT",4,5)),0)*C5</f>
+        <v>3500000</v>
+      </c>
+      <c r="H5" s="1">
+        <f>IF(RIGHT(D5,1)="A",0,10%*G5)</f>
+        <v>350000</v>
+      </c>
+      <c r="I5" s="1">
+        <f>G5-H5</f>
+        <v>3150000</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6" s="1">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E6" s="1" t="str">
+        <f>VLOOKUP(LEFT(D6,1),$A$15:$E$17,2,0)</f>
+        <v>MERCEDES</v>
+      </c>
+      <c r="F6" s="1" t="str">
+        <f>HLOOKUP(MID(D6,2,2),$B$20:$D$21,2,0)</f>
+        <v>NHA TRANG</v>
+      </c>
+      <c r="G6" s="1">
+        <f>VLOOKUP(LEFT(D6,1),$A$14:$E$17,IF(MID(D6,2,2)="VT",3,IF(MID(D6,2,2)="NT",4,5)),0)*C6</f>
+        <v>900000</v>
+      </c>
+      <c r="H6" s="1">
+        <f>IF(RIGHT(D6,1)="A",0,10%*G6)</f>
+        <v>90000</v>
+      </c>
+      <c r="I6" s="1">
+        <f>G6-H6</f>
+        <v>810000</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="M6" s="1">
+        <f>SUMIFS($I$4:$I$11,$E$4:$E$11,"TOYOTA",$F$4:$F$11,"VŨNG TÀU")</f>
+        <v>450000</v>
+      </c>
+      <c r="N6" s="1">
+        <f>SUMIFS($I$4:$I$11,$E$4:$E$11,"TOYOTA",$F$4:$F$11,"NHA TRANG")</f>
+        <v>3200000</v>
+      </c>
+      <c r="O6" s="1">
+        <f>SUMIFS($I$4:$I$11,$E$4:$E$11,"TOYOTA",$F$4:$F$11,"ĐÀ LẠT")</f>
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" s="1">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E7" s="1" t="str">
+        <f>VLOOKUP(LEFT(D7,1),$A$15:$E$17,2,0)</f>
+        <v>MERCEDES</v>
+      </c>
+      <c r="F7" s="1" t="str">
+        <f>HLOOKUP(MID(D7,2,2),$B$20:$D$21,2,0)</f>
+        <v>ĐÀ LẠT</v>
+      </c>
+      <c r="G7" s="1">
+        <f>VLOOKUP(LEFT(D7,1),$A$14:$E$17,IF(MID(D7,2,2)="VT",3,IF(MID(D7,2,2)="NT",4,5)),0)*C7</f>
+        <v>2200000</v>
+      </c>
+      <c r="H7" s="1">
+        <f>IF(RIGHT(D7,1)="A",0,10%*G7)</f>
+        <v>220000</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7-H7</f>
+        <v>1980000</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="M7" s="1">
+        <f>SUMIFS($I$4:$I$11,$E$4:$E$11,"MERCEDES",$F$4:$F$11,"VŨNG TÀU")</f>
+        <v>3600000</v>
+      </c>
+      <c r="N7" s="1">
+        <f>SUMIFS($I$4:$I$11,$E$4:$E$11,"MERCEDES",$F$4:$F$11,"NHA TRANG")</f>
+        <v>810000</v>
+      </c>
+      <c r="O7" s="1">
+        <f>SUMIFS($I$4:$I$11,$E$4:$E$11,"MERCEDES",$F$4:$F$11,"ĐÀ LẠT")</f>
+        <v>1980000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8" s="1">
+        <v>60</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E8" s="1" t="str">
+        <f>VLOOKUP(LEFT(D8,1),$A$15:$E$17,2,0)</f>
+        <v>MERCEDES</v>
+      </c>
+      <c r="F8" s="1" t="str">
+        <f>HLOOKUP(MID(D8,2,2),$B$20:$D$21,2,0)</f>
+        <v>VŨNG TÀU</v>
+      </c>
+      <c r="G8" s="1">
+        <f>VLOOKUP(LEFT(D8,1),$A$14:$E$17,IF(MID(D8,2,2)="VT",3,IF(MID(D8,2,2)="NT",4,5)),0)*C8</f>
+        <v>3600000</v>
+      </c>
+      <c r="H8" s="1">
+        <f>IF(RIGHT(D8,1)="A",0,10%*G8)</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f>G8-H8</f>
+        <v>3600000</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="M8" s="1">
+        <f>SUMIFS($I$4:$I$11,$E$4:$E$11,"HUYNDAI",$F$4:$F$11,"VŨNG TÀU")</f>
+        <v>2000000</v>
+      </c>
+      <c r="N8" s="1">
+        <f>SUMIFS($I$4:$I$11,$E$4:$E$11,"HUYNDAI",$F$4:$F$11,"NHA TRANG")</f>
+        <v>3150000</v>
+      </c>
+      <c r="O8" s="1">
+        <f>SUMIFS($I$4:$I$11,$E$4:$E$11,"HUYNDAI",$F$4:$F$11,"ĐÀ LẠT")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C9" s="1">
+        <v>30</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E9" s="1" t="str">
+        <f>VLOOKUP(LEFT(D9,1),$A$15:$E$17,2,0)</f>
+        <v>TOYOTA</v>
+      </c>
+      <c r="F9" s="1" t="str">
+        <f>HLOOKUP(MID(D9,2,2),$B$20:$D$21,2,0)</f>
+        <v>ĐÀ LẠT</v>
+      </c>
+      <c r="G9" s="1">
+        <f>VLOOKUP(LEFT(D9,1),$A$14:$E$17,IF(MID(D9,2,2)="VT",3,IF(MID(D9,2,2)="NT",4,5)),0)*C9</f>
+        <v>3000000</v>
+      </c>
+      <c r="H9" s="1">
+        <f>IF(RIGHT(D9,1)="A",0,10%*G9)</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <f>G9-H9</f>
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C10" s="1">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E10" s="1" t="str">
+        <f>VLOOKUP(LEFT(D10,1),$A$15:$E$17,2,0)</f>
+        <v>TOYOTA</v>
+      </c>
+      <c r="F10" s="1" t="str">
+        <f>HLOOKUP(MID(D10,2,2),$B$20:$D$21,2,0)</f>
+        <v>VŨNG TÀU</v>
+      </c>
+      <c r="G10" s="1">
+        <f>VLOOKUP(LEFT(D10,1),$A$14:$E$17,IF(MID(D10,2,2)="VT",3,IF(MID(D10,2,2)="NT",4,5)),0)*C10</f>
+        <v>500000</v>
+      </c>
+      <c r="H10" s="1">
+        <f>IF(RIGHT(D10,1)="A",0,10%*G10)</f>
+        <v>50000</v>
+      </c>
+      <c r="I10" s="1">
+        <f>G10-H10</f>
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C11" s="1">
+        <v>40</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E11" s="1" t="str">
+        <f>VLOOKUP(LEFT(D11,1),$A$15:$E$17,2,0)</f>
+        <v>TOYOTA</v>
+      </c>
+      <c r="F11" s="1" t="str">
+        <f>HLOOKUP(MID(D11,2,2),$B$20:$D$21,2,0)</f>
+        <v>NHA TRANG</v>
+      </c>
+      <c r="G11" s="1">
+        <f>VLOOKUP(LEFT(D11,1),$A$14:$E$17,IF(MID(D11,2,2)="VT",3,IF(MID(D11,2,2)="NT",4,5)),0)*C11</f>
+        <v>3200000</v>
+      </c>
+      <c r="H11" s="1">
+        <f>IF(RIGHT(D11,1)="A",0,10%*G11)</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <f>G11-H11</f>
+        <v>3200000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C15" s="1">
+        <v>50000</v>
+      </c>
+      <c r="D15" s="1">
+        <v>80000</v>
+      </c>
+      <c r="E15" s="1">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C16" s="1">
+        <v>60000</v>
+      </c>
+      <c r="D16" s="1">
+        <v>90000</v>
+      </c>
+      <c r="E16" s="1">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C17" s="1">
+        <v>40000</v>
+      </c>
+      <c r="D17" s="1">
+        <v>70000</v>
+      </c>
+      <c r="E17" s="1">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="42" t="s">
+        <v>202</v>
+      </c>
+      <c r="B24" s="1">
+        <f>SUMIF($F$4:$F$11,"VŨNG TÀU",$I$4:$I$11)</f>
+        <v>6050000</v>
+      </c>
+      <c r="C24" s="1">
+        <f>SUMIF($F$4:$F$11,"NHA TRANG",$I$4:$I$11)</f>
+        <v>7160000</v>
+      </c>
+      <c r="D24" s="1">
+        <f>SUMIF($F$4:$F$11,"ĐÀ LẠT",$I$4:$I$11)</f>
+        <v>4980000</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:I11">
+    <sortCondition ref="E4:E11"/>
+  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="A2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96C8427F-9890-466D-9AF4-D4E49729DE8F}">
+  <dimension ref="A2:N11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5:I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="20"/>
+    <col min="2" max="2" width="12.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="22">
+        <v>1</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="22">
+        <v>2</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="I4" s="20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="22">
+        <v>3</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="I5" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="J5" s="44" t="s">
+        <v>206</v>
+      </c>
+      <c r="K5" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="22">
+        <v>4</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43" t="s">
+        <v>220</v>
+      </c>
+      <c r="N6" s="43"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="22">
+        <v>5</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="M7" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="N7" s="22" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="22">
+        <v>6</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="22">
+        <v>7</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="22">
+        <v>8</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="22">
+        <v>9</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="K5:N5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/BTH/Thuc_hanh_Excel_Co_ban.xlsx
+++ b/BTH/Thuc_hanh_Excel_Co_ban.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2351050041MaoDucHai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Nhap-Mon-Tin-Hoc-TH\BTH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BCF2293-0073-440E-9897-ED89538069CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5EA060-29FB-4F14-9748-8F41E80EE295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15390" firstSheet="2" activeTab="8" xr2:uid="{8E08941F-1D49-4636-B2AE-37A49C149DBE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="2" activeTab="8" xr2:uid="{8E08941F-1D49-4636-B2AE-37A49C149DBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
     <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
-    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
+    <sheet name="Bai8" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="206">
   <si>
     <t>STT</t>
   </si>
@@ -676,60 +676,7 @@
     <t>BÁO CÁO DOANH THU QUÝ 4/2008</t>
   </si>
   <si>
-    <t>MÃ DU LỊCH</t>
-  </si>
-  <si>
-    <t>ĐỊA ĐIỂM
-DU LỊCH</t>
-  </si>
-  <si>
-    <t>PHƯƠNG TIỆN
-LOẠI DV</t>
-  </si>
-  <si>
-    <t>PHỤ THU</t>
-  </si>
-  <si>
-    <t>TỔNG TIỀN</t>
-  </si>
-  <si>
-    <t>NTX1N</t>
-  </si>
-  <si>
-    <t>NTX1V</t>
-  </si>
-  <si>
-    <t>HNB2V</t>
-  </si>
-  <si>
-    <t>HNB1N</t>
-  </si>
-  <si>
-    <t>ĐLX1N</t>
-  </si>
-  <si>
-    <t>HNX1V</t>
-  </si>
-  <si>
-    <t>NTB2V</t>
-  </si>
-  <si>
-    <t>HNX2V</t>
-  </si>
-  <si>
-    <t>ĐLB2V</t>
-  </si>
-  <si>
-    <t>MÁY BAY</t>
-  </si>
-  <si>
-    <t>XE DU LỊCH</t>
-  </si>
-  <si>
-    <t>LOẠI 1</t>
-  </si>
-  <si>
-    <t>LOẠI 2</t>
+    <t>GIẢM GIÁ</t>
   </si>
 </sst>
 </file>
@@ -884,7 +831,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -942,6 +889,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -981,13 +929,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3268,29 +3221,29 @@
       <selection activeCell="F8" sqref="F8:G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -3313,7 +3266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3338,7 +3291,7 @@
         <v>3015000</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3363,7 +3316,7 @@
         <v>4020000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3388,7 +3341,7 @@
         <v>1407000</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3413,7 +3366,7 @@
         <v>542700</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3438,14 +3391,14 @@
         <v>9045000</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="33"/>
       <c r="F8" s="9">
         <f>SUM(F3:F7)</f>
         <v>89700</v>
@@ -3473,30 +3426,30 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G2" t="s">
         <v>24</v>
       </c>
@@ -3504,7 +3457,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G3" t="s">
         <v>25</v>
       </c>
@@ -3512,7 +3465,7 @@
         <v>830000</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
@@ -3538,7 +3491,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -3566,7 +3519,7 @@
         <v>8540100</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -3594,7 +3547,7 @@
         <v>7732600</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -3622,7 +3575,7 @@
         <v>5439000</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -3650,7 +3603,7 @@
         <v>6034600</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -3678,7 +3631,7 @@
         <v>5020400</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -3706,7 +3659,7 @@
         <v>5733400</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -3734,15 +3687,15 @@
         <v>5932600</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
       <c r="G12" s="9">
         <f>SUM(G5:G11)</f>
         <v>5000000</v>
@@ -3769,42 +3722,42 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="34" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B1" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="35" t="s">
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
       <c r="H2">
         <v>25000000</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -3830,7 +3783,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -3859,7 +3812,7 @@
         <v>4626206.8965517245</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -3888,7 +3841,7 @@
         <v>3800689.6551724137</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -3917,7 +3870,7 @@
         <v>3666206.8965517241</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -3946,7 +3899,7 @@
         <v>3428965.5172413792</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -3975,7 +3928,7 @@
         <v>3168965.5172413792</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -4004,7 +3957,7 @@
         <v>3197241.3793103448</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -4033,13 +3986,13 @@
         <v>3111724.1379310344</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
       <c r="E11" s="1">
         <f>SUM(E4:E10)</f>
         <v>174</v>
@@ -4075,42 +4028,42 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-    </row>
-    <row r="3" spans="1:8" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+    </row>
+    <row r="3" spans="1:8" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>55</v>
       </c>
@@ -4136,7 +4089,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -4166,7 +4119,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -4196,7 +4149,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -4226,7 +4179,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -4256,7 +4209,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -4286,7 +4239,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -4316,7 +4269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -4346,7 +4299,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -4376,7 +4329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -4406,7 +4359,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -4436,34 +4389,34 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C14" s="37" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C14" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
       <c r="F14" s="16">
         <f>AVERAGE(E4:E13)</f>
         <v>6.7333333333333343</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C15" s="29" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C15" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
       <c r="F15" s="11">
         <f>MAX(E4:E13)</f>
         <v>9.3333333333333339</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C16" s="29" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C16" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
       <c r="F16" s="11">
         <f>MIN(E4:E13)</f>
         <v>4.666666666666667</v>
@@ -4489,35 +4442,35 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B1" s="38" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B1" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-    </row>
-    <row r="2" spans="1:15" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+    </row>
+    <row r="2" spans="1:15" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>77</v>
       </c>
@@ -4558,7 +4511,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -4604,7 +4557,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -4650,7 +4603,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -4696,7 +4649,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -4733,7 +4686,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -4770,7 +4723,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -4819,7 +4772,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -4888,22 +4841,22 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="17" max="19" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
@@ -4929,7 +4882,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -4986,7 +4939,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -5046,7 +4999,7 @@
         <v>3250000</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>9</v>
       </c>
@@ -5091,7 +5044,7 @@
         <v>650000</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>11</v>
       </c>
@@ -5136,7 +5089,7 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -5166,7 +5119,7 @@
         <v>950000</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -5196,7 +5149,7 @@
         <v>950000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>10</v>
       </c>
@@ -5226,7 +5179,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -5256,7 +5209,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>5</v>
       </c>
@@ -5286,7 +5239,7 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>6</v>
       </c>
@@ -5316,7 +5269,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>8</v>
       </c>
@@ -5346,7 +5299,7 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -5376,7 +5329,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="18" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H14">
     <sortCondition ref="E3:E14"/>
@@ -5393,24 +5346,24 @@
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" style="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="9.140625" style="20"/>
-    <col min="11" max="11" width="13.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="10.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="20"/>
-    <col min="16" max="16" width="12.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="20"/>
-    <col min="18" max="18" width="9.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="20"/>
+    <col min="3" max="3" width="10.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="9.109375" style="20"/>
+    <col min="11" max="11" width="13.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="10.88671875" style="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.109375" style="20"/>
+    <col min="16" max="16" width="12.88671875" style="20" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="20"/>
+    <col min="18" max="18" width="9.88671875" style="20" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.109375" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="21" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
         <v>55</v>
       </c>
@@ -5439,7 +5392,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="22">
         <v>1</v>
       </c>
@@ -5479,7 +5432,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="22">
         <v>2</v>
       </c>
@@ -5537,7 +5490,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="22">
         <v>3</v>
       </c>
@@ -5595,7 +5548,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
         <v>4</v>
       </c>
@@ -5653,7 +5606,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
         <v>5</v>
       </c>
@@ -5699,7 +5652,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <v>6</v>
       </c>
@@ -5733,7 +5686,7 @@
         <v>4704</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <v>7</v>
       </c>
@@ -5767,7 +5720,7 @@
         <v>9166.5</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="22">
         <v>8</v>
       </c>
@@ -5801,14 +5754,14 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="39" t="s">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="40" t="s">
         <v>167</v>
       </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="41"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="42"/>
       <c r="F10" s="22">
         <f>SUM(F2:F9)</f>
         <v>41100</v>
@@ -5838,7 +5791,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K11" s="22" t="s">
         <v>169</v>
       </c>
@@ -5855,7 +5808,7 @@
         <v>3680</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K13" s="22"/>
       <c r="L13" s="22" t="s">
         <v>170</v>
@@ -5867,7 +5820,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K14" s="22" t="s">
         <v>156</v>
       </c>
@@ -5884,7 +5837,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K15" s="22" t="s">
         <v>157</v>
       </c>
@@ -5901,7 +5854,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K16" s="22" t="s">
         <v>158</v>
       </c>
@@ -5931,44 +5884,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51EF6687-B1DB-47EC-8C21-F6B5C3D6CE9E}">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-    </row>
-    <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+    </row>
+    <row r="3" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
@@ -5997,7 +5950,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -6011,27 +5964,27 @@
         <v>186</v>
       </c>
       <c r="E4" s="1" t="str">
-        <f>VLOOKUP(LEFT(D4,1),$A$15:$E$17,2,0)</f>
+        <f t="shared" ref="E4:E11" si="0">VLOOKUP(LEFT(D4,1),$A$15:$E$17,2,0)</f>
         <v>HUYNDAI</v>
       </c>
       <c r="F4" s="1" t="str">
-        <f>HLOOKUP(MID(D4,2,2),$B$20:$D$21,2,0)</f>
+        <f t="shared" ref="F4:F11" si="1">HLOOKUP(MID(D4,2,2),$B$20:$D$21,2,0)</f>
         <v>VŨNG TÀU</v>
       </c>
       <c r="G4" s="1">
-        <f>VLOOKUP(LEFT(D4,1),$A$14:$E$17,IF(MID(D4,2,2)="VT",3,IF(MID(D4,2,2)="NT",4,5)),0)*C4</f>
+        <f t="shared" ref="G4:G11" si="2">VLOOKUP(LEFT(D4,1),$A$14:$E$17,IF(MID(D4,2,2)="VT",3,IF(MID(D4,2,2)="NT",4,5)),0)*C4</f>
         <v>2000000</v>
       </c>
       <c r="H4" s="1">
-        <f>IF(RIGHT(D4,1)="A",0,10%*G4)</f>
+        <f t="shared" ref="H4:H11" si="3">IF(RIGHT(D4,1)="A",0,10%*G4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <f>G4-H4</f>
+        <f t="shared" ref="I4:I11" si="4">G4-H4</f>
         <v>2000000</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>5</v>
       </c>
@@ -6045,23 +5998,23 @@
         <v>190</v>
       </c>
       <c r="E5" s="1" t="str">
-        <f>VLOOKUP(LEFT(D5,1),$A$15:$E$17,2,0)</f>
+        <f t="shared" si="0"/>
         <v>HUYNDAI</v>
       </c>
       <c r="F5" s="1" t="str">
-        <f>HLOOKUP(MID(D5,2,2),$B$20:$D$21,2,0)</f>
+        <f t="shared" si="1"/>
         <v>NHA TRANG</v>
       </c>
       <c r="G5" s="1">
-        <f>VLOOKUP(LEFT(D5,1),$A$14:$E$17,IF(MID(D5,2,2)="VT",3,IF(MID(D5,2,2)="NT",4,5)),0)*C5</f>
+        <f t="shared" si="2"/>
         <v>3500000</v>
       </c>
       <c r="H5" s="1">
-        <f>IF(RIGHT(D5,1)="A",0,10%*G5)</f>
+        <f t="shared" si="3"/>
         <v>350000</v>
       </c>
       <c r="I5" s="1">
-        <f>G5-H5</f>
+        <f t="shared" si="4"/>
         <v>3150000</v>
       </c>
       <c r="L5" s="1"/>
@@ -6075,7 +6028,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -6089,23 +6042,23 @@
         <v>189</v>
       </c>
       <c r="E6" s="1" t="str">
-        <f>VLOOKUP(LEFT(D6,1),$A$15:$E$17,2,0)</f>
+        <f t="shared" si="0"/>
         <v>MERCEDES</v>
       </c>
       <c r="F6" s="1" t="str">
-        <f>HLOOKUP(MID(D6,2,2),$B$20:$D$21,2,0)</f>
+        <f t="shared" si="1"/>
         <v>NHA TRANG</v>
       </c>
       <c r="G6" s="1">
-        <f>VLOOKUP(LEFT(D6,1),$A$14:$E$17,IF(MID(D6,2,2)="VT",3,IF(MID(D6,2,2)="NT",4,5)),0)*C6</f>
+        <f t="shared" si="2"/>
         <v>900000</v>
       </c>
       <c r="H6" s="1">
-        <f>IF(RIGHT(D6,1)="A",0,10%*G6)</f>
+        <f t="shared" si="3"/>
         <v>90000</v>
       </c>
       <c r="I6" s="1">
-        <f>G6-H6</f>
+        <f t="shared" si="4"/>
         <v>810000</v>
       </c>
       <c r="L6" s="1" t="s">
@@ -6124,7 +6077,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -6138,23 +6091,23 @@
         <v>191</v>
       </c>
       <c r="E7" s="1" t="str">
-        <f>VLOOKUP(LEFT(D7,1),$A$15:$E$17,2,0)</f>
+        <f t="shared" si="0"/>
         <v>MERCEDES</v>
       </c>
       <c r="F7" s="1" t="str">
-        <f>HLOOKUP(MID(D7,2,2),$B$20:$D$21,2,0)</f>
+        <f t="shared" si="1"/>
         <v>ĐÀ LẠT</v>
       </c>
       <c r="G7" s="1">
-        <f>VLOOKUP(LEFT(D7,1),$A$14:$E$17,IF(MID(D7,2,2)="VT",3,IF(MID(D7,2,2)="NT",4,5)),0)*C7</f>
+        <f t="shared" si="2"/>
         <v>2200000</v>
       </c>
       <c r="H7" s="1">
-        <f>IF(RIGHT(D7,1)="A",0,10%*G7)</f>
+        <f t="shared" si="3"/>
         <v>220000</v>
       </c>
       <c r="I7" s="1">
-        <f>G7-H7</f>
+        <f t="shared" si="4"/>
         <v>1980000</v>
       </c>
       <c r="L7" s="1" t="s">
@@ -6173,7 +6126,7 @@
         <v>1980000</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -6187,23 +6140,23 @@
         <v>192</v>
       </c>
       <c r="E8" s="1" t="str">
-        <f>VLOOKUP(LEFT(D8,1),$A$15:$E$17,2,0)</f>
+        <f t="shared" si="0"/>
         <v>MERCEDES</v>
       </c>
       <c r="F8" s="1" t="str">
-        <f>HLOOKUP(MID(D8,2,2),$B$20:$D$21,2,0)</f>
+        <f t="shared" si="1"/>
         <v>VŨNG TÀU</v>
       </c>
       <c r="G8" s="1">
-        <f>VLOOKUP(LEFT(D8,1),$A$14:$E$17,IF(MID(D8,2,2)="VT",3,IF(MID(D8,2,2)="NT",4,5)),0)*C8</f>
+        <f t="shared" si="2"/>
         <v>3600000</v>
       </c>
       <c r="H8" s="1">
-        <f>IF(RIGHT(D8,1)="A",0,10%*G8)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <f>G8-H8</f>
+        <f t="shared" si="4"/>
         <v>3600000</v>
       </c>
       <c r="L8" s="1" t="s">
@@ -6222,7 +6175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>2</v>
       </c>
@@ -6236,27 +6189,27 @@
         <v>187</v>
       </c>
       <c r="E9" s="1" t="str">
-        <f>VLOOKUP(LEFT(D9,1),$A$15:$E$17,2,0)</f>
+        <f t="shared" si="0"/>
         <v>TOYOTA</v>
       </c>
       <c r="F9" s="1" t="str">
-        <f>HLOOKUP(MID(D9,2,2),$B$20:$D$21,2,0)</f>
+        <f t="shared" si="1"/>
         <v>ĐÀ LẠT</v>
       </c>
       <c r="G9" s="1">
-        <f>VLOOKUP(LEFT(D9,1),$A$14:$E$17,IF(MID(D9,2,2)="VT",3,IF(MID(D9,2,2)="NT",4,5)),0)*C9</f>
+        <f t="shared" si="2"/>
         <v>3000000</v>
       </c>
       <c r="H9" s="1">
-        <f>IF(RIGHT(D9,1)="A",0,10%*G9)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <f>G9-H9</f>
+        <f t="shared" si="4"/>
         <v>3000000</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>3</v>
       </c>
@@ -6270,27 +6223,27 @@
         <v>188</v>
       </c>
       <c r="E10" s="1" t="str">
-        <f>VLOOKUP(LEFT(D10,1),$A$15:$E$17,2,0)</f>
+        <f t="shared" si="0"/>
         <v>TOYOTA</v>
       </c>
       <c r="F10" s="1" t="str">
-        <f>HLOOKUP(MID(D10,2,2),$B$20:$D$21,2,0)</f>
+        <f t="shared" si="1"/>
         <v>VŨNG TÀU</v>
       </c>
       <c r="G10" s="1">
-        <f>VLOOKUP(LEFT(D10,1),$A$14:$E$17,IF(MID(D10,2,2)="VT",3,IF(MID(D10,2,2)="NT",4,5)),0)*C10</f>
+        <f t="shared" si="2"/>
         <v>500000</v>
       </c>
       <c r="H10" s="1">
-        <f>IF(RIGHT(D10,1)="A",0,10%*G10)</f>
+        <f t="shared" si="3"/>
         <v>50000</v>
       </c>
       <c r="I10" s="1">
-        <f>G10-H10</f>
+        <f t="shared" si="4"/>
         <v>450000</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>8</v>
       </c>
@@ -6304,32 +6257,32 @@
         <v>193</v>
       </c>
       <c r="E11" s="1" t="str">
-        <f>VLOOKUP(LEFT(D11,1),$A$15:$E$17,2,0)</f>
+        <f t="shared" si="0"/>
         <v>TOYOTA</v>
       </c>
       <c r="F11" s="1" t="str">
-        <f>HLOOKUP(MID(D11,2,2),$B$20:$D$21,2,0)</f>
+        <f t="shared" si="1"/>
         <v>NHA TRANG</v>
       </c>
       <c r="G11" s="1">
-        <f>VLOOKUP(LEFT(D11,1),$A$14:$E$17,IF(MID(D11,2,2)="VT",3,IF(MID(D11,2,2)="NT",4,5)),0)*C11</f>
+        <f t="shared" si="2"/>
         <v>3200000</v>
       </c>
       <c r="H11" s="1">
-        <f>IF(RIGHT(D11,1)="A",0,10%*G11)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I11" s="1">
-        <f>G11-H11</f>
+        <f t="shared" si="4"/>
         <v>3200000</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>194</v>
       </c>
@@ -6346,7 +6299,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>195</v>
       </c>
@@ -6363,7 +6316,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>197</v>
       </c>
@@ -6380,7 +6333,7 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>196</v>
       </c>
@@ -6397,12 +6350,12 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>201</v>
       </c>
@@ -6416,7 +6369,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>99</v>
       </c>
@@ -6430,7 +6383,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>201</v>
       </c>
@@ -6444,8 +6397,8 @@
         <v>138</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="42" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="29" t="s">
         <v>202</v>
       </c>
       <c r="B24" s="1">
@@ -6476,229 +6429,394 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96C8427F-9890-466D-9AF4-D4E49729DE8F}">
-  <dimension ref="A2:N11"/>
+  <dimension ref="A2:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:I7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="20"/>
-    <col min="2" max="2" width="12.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="20"/>
+    <col min="1" max="1" width="4.77734375" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="20" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="20" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" style="20"/>
+    <col min="11" max="11" width="19.21875" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.77734375" style="20" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" style="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" style="20" customWidth="1"/>
+    <col min="16" max="16384" width="9.109375" style="20"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="26" t="s">
+    <row r="2" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+    </row>
+    <row r="3" spans="1:15" s="21" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="H3" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="C2" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>207</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>208</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="22">
+      <c r="I3" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="K3" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="L3" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="M3" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="N3" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="O3" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="24">
         <v>1</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="22">
+      <c r="B4" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="C4" s="22">
+        <v>50</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="E4" s="22" t="str">
+        <f>VLOOKUP(LEFT(D4,1),$K$4:$L$6,2,0)</f>
+        <v>HUYNDAI</v>
+      </c>
+      <c r="F4" s="22" t="str">
+        <f>HLOOKUP(MID(D4,2,2),$L$8:$N$9,2,0)</f>
+        <v>VŨNG TÀU</v>
+      </c>
+      <c r="G4" s="22">
+        <f>VLOOKUP(E4,$L$4:$O$6,IF(MID(D4,2,2)="VT",2,IF(MID(D4,2,2)="NT",3,4)),0)*C4</f>
+        <v>2000000</v>
+      </c>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="K4" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="M4" s="22">
+        <v>50000</v>
+      </c>
+      <c r="N4" s="22">
+        <v>80000</v>
+      </c>
+      <c r="O4" s="22">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="24">
         <v>2</v>
       </c>
-      <c r="B4" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="I4" s="20" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="22">
+      <c r="B5" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" s="22">
+        <v>30</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="E5" s="22" t="str">
+        <f t="shared" ref="E5:E11" si="0">VLOOKUP(LEFT(D5,1),$K$4:$L$6,2,0)</f>
+        <v>TOYOTA</v>
+      </c>
+      <c r="F5" s="22" t="str">
+        <f t="shared" ref="F5:F11" si="1">HLOOKUP(MID(D5,2,2),$L$8:$N$9,2,0)</f>
+        <v>ĐÀ LẠT</v>
+      </c>
+      <c r="G5" s="22">
+        <f t="shared" ref="G5:G11" si="2">VLOOKUP(E5,$L$4:$O$6,IF(MID(D5,2,2)="VT",2,IF(MID(D5,2,2)="NT",3,4)),0)*C5</f>
+        <v>3000000</v>
+      </c>
+      <c r="H5" s="22"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="L5" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="M5" s="47">
+        <v>60000</v>
+      </c>
+      <c r="N5" s="47">
+        <v>90000</v>
+      </c>
+      <c r="O5" s="22">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="24">
         <v>3</v>
       </c>
-      <c r="B5" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="I5" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="J5" s="44" t="s">
-        <v>206</v>
-      </c>
-      <c r="K5" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="22">
+      <c r="B6" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" s="22">
+        <v>10</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="E6" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>TOYOTA</v>
+      </c>
+      <c r="F6" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>VŨNG TÀU</v>
+      </c>
+      <c r="G6" s="22">
+        <f t="shared" si="2"/>
+        <v>500000</v>
+      </c>
+      <c r="H6" s="22"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="L6" s="47" t="s">
+        <v>200</v>
+      </c>
+      <c r="M6" s="47">
+        <v>40000</v>
+      </c>
+      <c r="N6" s="47">
+        <v>70000</v>
+      </c>
+      <c r="O6" s="22">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="24">
         <v>4</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="43" t="s">
-        <v>219</v>
-      </c>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43" t="s">
-        <v>220</v>
-      </c>
-      <c r="N6" s="43"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="22">
+      <c r="B7" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" s="22">
+        <v>10</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="E7" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>MERCEDES</v>
+      </c>
+      <c r="F7" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>NHA TRANG</v>
+      </c>
+      <c r="G7" s="22">
+        <f t="shared" si="2"/>
+        <v>900000</v>
+      </c>
+      <c r="H7" s="22"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="24">
         <v>5</v>
       </c>
-      <c r="B7" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="L7" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="M7" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="N7" s="22" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="22">
+      <c r="B8" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="C8" s="22">
+        <v>50</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="E8" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>HUYNDAI</v>
+      </c>
+      <c r="F8" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>NHA TRANG</v>
+      </c>
+      <c r="G8" s="22">
+        <f t="shared" si="2"/>
+        <v>3500000</v>
+      </c>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="M8" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="N8" s="22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="24">
         <v>6</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="22">
+      <c r="B9" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="C9" s="22">
+        <v>20</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="E9" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>MERCEDES</v>
+      </c>
+      <c r="F9" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>ĐÀ LẠT</v>
+      </c>
+      <c r="G9" s="22">
+        <f t="shared" si="2"/>
+        <v>2200000</v>
+      </c>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="M9" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="N9" s="22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="24">
         <v>7</v>
       </c>
-      <c r="B9" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="22">
+      <c r="B10" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="C10" s="22">
+        <v>60</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="E10" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>MERCEDES</v>
+      </c>
+      <c r="F10" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>VŨNG TÀU</v>
+      </c>
+      <c r="G10" s="22">
+        <f t="shared" si="2"/>
+        <v>3600000</v>
+      </c>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="24">
         <v>8</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="22">
-        <v>9</v>
-      </c>
       <c r="B11" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
+        <v>185</v>
+      </c>
+      <c r="C11" s="22">
+        <v>40</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="E11" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>TOYOTA</v>
+      </c>
+      <c r="F11" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>NHA TRANG</v>
+      </c>
+      <c r="G11" s="22">
+        <f t="shared" si="2"/>
+        <v>3200000</v>
+      </c>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="K5:N5"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/BTH/Thuc_hanh_Excel_Co_ban.xlsx
+++ b/BTH/Thuc_hanh_Excel_Co_ban.xlsx
@@ -1,29 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27230"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Nhap-Mon-Tin-Hoc-TH\BTH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5EA060-29FB-4F14-9748-8F41E80EE295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="197" documentId="13_ncr:1_{8F5EA060-29FB-4F14-9748-8F41E80EE295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95E89CC2-85C5-408E-BB9B-90DD9613486C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="2" activeTab="8" xr2:uid="{8E08941F-1D49-4636-B2AE-37A49C149DBE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="9" activeTab="7" xr2:uid="{8E08941F-1D49-4636-B2AE-37A49C149DBE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
+    <sheet name="Bai1" sheetId="1" r:id="rId1"/>
+    <sheet name="Bai2" sheetId="2" r:id="rId2"/>
+    <sheet name="Bai3" sheetId="3" r:id="rId3"/>
+    <sheet name="Bai4" sheetId="4" r:id="rId4"/>
+    <sheet name="Bai5" sheetId="5" r:id="rId5"/>
+    <sheet name="Bai6" sheetId="6" r:id="rId6"/>
+    <sheet name="Bai7" sheetId="7" r:id="rId7"/>
+    <sheet name="Bai 8" sheetId="8" r:id="rId8"/>
     <sheet name="Bai8" sheetId="9" r:id="rId9"/>
+    <sheet name="Bai9" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Bai8'!$B$4:$I$11</definedName>
+  </definedNames>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,6 +39,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,7 +48,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="229">
+  <si>
+    <t>CỬA HÀNG VẬT TƯ</t>
+  </si>
   <si>
     <t>STT</t>
   </si>
@@ -59,43 +68,49 @@
     <t>Đơn giá</t>
   </si>
   <si>
+    <t>Chuyên chở</t>
+  </si>
+  <si>
     <t>Thành tiền</t>
   </si>
   <si>
     <t>Cát</t>
   </si>
   <si>
+    <t>Khối</t>
+  </si>
+  <si>
+    <t>Đá</t>
+  </si>
+  <si>
     <t>Gạch ống</t>
   </si>
   <si>
+    <t>Viên</t>
+  </si>
+  <si>
     <t>Sắt</t>
   </si>
   <si>
+    <t>Kg</t>
+  </si>
+  <si>
     <t>Xi măng</t>
   </si>
   <si>
-    <t>Khối</t>
-  </si>
-  <si>
-    <t>Viên</t>
-  </si>
-  <si>
-    <t>Kg</t>
-  </si>
-  <si>
     <t>Bao</t>
   </si>
   <si>
     <t>Tổng cộng</t>
   </si>
   <si>
-    <t>Đá</t>
-  </si>
-  <si>
-    <t>Chuyên chở</t>
-  </si>
-  <si>
-    <t>CỬA HÀNG VẬT TƯ</t>
+    <t>BẢNG THANH TOÁN LƯƠNG THÁNH</t>
+  </si>
+  <si>
+    <t>MPC</t>
+  </si>
+  <si>
+    <t>MLCB</t>
   </si>
   <si>
     <t>Họ và tên</t>
@@ -110,61 +125,58 @@
     <t>PCTN</t>
   </si>
   <si>
+    <t>PCCV</t>
+  </si>
+  <si>
     <t>Thưởng</t>
   </si>
   <si>
     <t>Thực lãnh</t>
   </si>
   <si>
-    <t>MPC</t>
-  </si>
-  <si>
-    <t>MLCB</t>
-  </si>
-  <si>
     <t>Nguyễn Vũ Lân</t>
   </si>
   <si>
+    <t>HT</t>
+  </si>
+  <si>
     <t>Huỳnh Thúy Anh</t>
   </si>
   <si>
+    <t>HP</t>
+  </si>
+  <si>
     <t>Ngô Thanh Vân</t>
   </si>
   <si>
+    <t>TP</t>
+  </si>
+  <si>
     <t>Nguyễn Thị hà</t>
   </si>
   <si>
+    <t>PP</t>
+  </si>
+  <si>
     <t>Hồ Minh Tâm</t>
   </si>
   <si>
+    <t>NV</t>
+  </si>
+  <si>
     <t>Trần Hiếu Trung</t>
   </si>
   <si>
+    <t>GV</t>
+  </si>
+  <si>
     <t>Lê Thùy Vân</t>
   </si>
   <si>
-    <t>HT</t>
-  </si>
-  <si>
-    <t>HP</t>
-  </si>
-  <si>
-    <t>TP</t>
-  </si>
-  <si>
-    <t>PP</t>
-  </si>
-  <si>
-    <t>NV</t>
-  </si>
-  <si>
-    <t>GV</t>
-  </si>
-  <si>
-    <t>PCCV</t>
-  </si>
-  <si>
-    <t>BẢNG THANH TOÁN LƯƠNG THÁNH</t>
+    <t>BẢNG THANH TOÁN LƯƠNG THÁNG</t>
+  </si>
+  <si>
+    <t>TỔNG QUỸ LƯƠNG</t>
   </si>
   <si>
     <t>NLV</t>
@@ -176,9 +188,15 @@
     <t>Lê Xuân Anh</t>
   </si>
   <si>
+    <t>GD</t>
+  </si>
+  <si>
     <t>Trần Thế Mỹ</t>
   </si>
   <si>
+    <t>PG</t>
+  </si>
+  <si>
     <t>Lê Văn Hòa</t>
   </si>
   <si>
@@ -194,55 +212,19 @@
     <t>Phạm Thùy Vân</t>
   </si>
   <si>
-    <t>GD</t>
-  </si>
-  <si>
-    <t>PG</t>
-  </si>
-  <si>
     <t>TỔNG:</t>
   </si>
   <si>
-    <t>TỔNG QUỸ LƯƠNG</t>
-  </si>
-  <si>
-    <t>BẢNG THANH TOÁN LƯƠNG THÁNG</t>
+    <t>BẢNG ĐIỂM THI CUỐI KHÓA</t>
+  </si>
+  <si>
+    <t>Môn thi: Lập trình Căn bản</t>
   </si>
   <si>
     <t>TT</t>
   </si>
   <si>
     <t>Họ tên</t>
-  </si>
-  <si>
-    <t>Điểm</t>
-  </si>
-  <si>
-    <t>Nguyễn Hữu An</t>
-  </si>
-  <si>
-    <t>Phạm Vũ Bảo</t>
-  </si>
-  <si>
-    <t>Lê Minh Chương</t>
-  </si>
-  <si>
-    <t>Võ Phong Phú</t>
-  </si>
-  <si>
-    <t>Nguyễn Hải Minh</t>
-  </si>
-  <si>
-    <t>Nguyễn Quý Sơn</t>
-  </si>
-  <si>
-    <t>Mai Công Tâm</t>
-  </si>
-  <si>
-    <t>Nguyễn Thanh Tùng</t>
-  </si>
-  <si>
-    <t>Huỳnh Trung Tuấn</t>
   </si>
   <si>
     <t>Thực
@@ -253,6 +235,9 @@
 thuyết</t>
   </si>
   <si>
+    <t>Điểm</t>
+  </si>
+  <si>
     <t>Kết
 quả</t>
   </si>
@@ -265,10 +250,31 @@
 hạng</t>
   </si>
   <si>
-    <t>BẢNG ĐIỂM THI CUỐI KHÓA</t>
-  </si>
-  <si>
-    <t>Môn thi: Lập trình Căn bản</t>
+    <t>Nguyễn Hữu An</t>
+  </si>
+  <si>
+    <t>Phạm Vũ Bảo</t>
+  </si>
+  <si>
+    <t>Lê Minh Chương</t>
+  </si>
+  <si>
+    <t>Võ Phong Phú</t>
+  </si>
+  <si>
+    <t>Nguyễn Hải Minh</t>
+  </si>
+  <si>
+    <t>Nguyễn Quý Sơn</t>
+  </si>
+  <si>
+    <t>Mai Công Tâm</t>
+  </si>
+  <si>
+    <t>Nguyễn Thanh Tùng</t>
+  </si>
+  <si>
+    <t>Huỳnh Trung Tuấn</t>
   </si>
   <si>
     <t>Điểm trung bình</t>
@@ -278,6 +284,9 @@
   </si>
   <si>
     <t>Điểm bé nhất</t>
+  </si>
+  <si>
+    <t>TÌNH HÌNH KINH DOANH THÁNG 07/2010</t>
   </si>
   <si>
     <t>Số TT</t>
@@ -311,15 +320,35 @@
 theo ngày</t>
   </si>
   <si>
+    <t>Bảng giá</t>
+  </si>
+  <si>
+    <t>Đơn giá
+tuần</t>
+  </si>
+  <si>
+    <t>Đơn giá
+ngày lẻ</t>
+  </si>
+  <si>
     <t>Thành</t>
   </si>
   <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
     <t>Tân</t>
   </si>
   <si>
     <t>Thảo</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>Hải</t>
   </si>
   <si>
@@ -329,16 +358,13 @@
     <t>Hùng</t>
   </si>
   <si>
+    <t>Loại phòng</t>
+  </si>
+  <si>
     <t>Dung</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>C</t>
+    <t>Doanh thu</t>
   </si>
   <si>
     <t>HỌ LÓT</t>
@@ -348,156 +374,136 @@
   </si>
   <si>
     <t>MÃ DL</t>
-  </si>
-  <si>
-    <t>TÊN ĐỊA PHƯƠNG</t>
-  </si>
-  <si>
-    <t>GIÁ VÉ</t>
-  </si>
-  <si>
-    <t>CHI PHÍ</t>
-  </si>
-  <si>
-    <t>TỔNG CỘNG</t>
   </si>
   <si>
     <t>TÊN ĐỊA
 PHƯƠNG</t>
   </si>
   <si>
+    <t>GIÁ VÉ</t>
+  </si>
+  <si>
+    <t>CHI PHÍ</t>
+  </si>
+  <si>
+    <t>TỔNG CỘNG</t>
+  </si>
+  <si>
+    <t>Lê Minh</t>
+  </si>
+  <si>
+    <t>Chương</t>
+  </si>
+  <si>
+    <t>ĐLB</t>
+  </si>
+  <si>
+    <t>MÃ ĐP</t>
+  </si>
+  <si>
+    <t>TÊN ĐỊA PHƯƠNG</t>
+  </si>
+  <si>
+    <t>CHI PHÍ A</t>
+  </si>
+  <si>
+    <t>CHI PHÍ B</t>
+  </si>
+  <si>
+    <t>VT</t>
+  </si>
+  <si>
+    <t>NT</t>
+  </si>
+  <si>
+    <t>ĐL</t>
+  </si>
+  <si>
+    <t>Võ Phong</t>
+  </si>
+  <si>
+    <t>Phú</t>
+  </si>
+  <si>
+    <t>ĐLA</t>
+  </si>
+  <si>
+    <t>VŨNG TÀU</t>
+  </si>
+  <si>
+    <t>Huỳnh Trung</t>
+  </si>
+  <si>
+    <t>Tuấn</t>
+  </si>
+  <si>
+    <t>NHA TRANG</t>
+  </si>
+  <si>
     <t>Nguyễn Hữu</t>
   </si>
   <si>
+    <t>Hạnh</t>
+  </si>
+  <si>
+    <t>ĐÀ LẠT</t>
+  </si>
+  <si>
     <t>Phạm Vũ</t>
   </si>
   <si>
-    <t>Lê Minh</t>
-  </si>
-  <si>
-    <t>Võ Phong</t>
+    <t>Bảo</t>
+  </si>
+  <si>
+    <t>NTB</t>
+  </si>
+  <si>
+    <t>Mai Công</t>
+  </si>
+  <si>
+    <t>Tâm</t>
+  </si>
+  <si>
+    <t>Lê Thùy</t>
+  </si>
+  <si>
+    <t>Vân</t>
+  </si>
+  <si>
+    <t>NTA</t>
+  </si>
+  <si>
+    <t>An</t>
+  </si>
+  <si>
+    <t>VTA</t>
   </si>
   <si>
     <t>Nguyễn Hải</t>
   </si>
   <si>
+    <t>Minh</t>
+  </si>
+  <si>
+    <t>VTB</t>
+  </si>
+  <si>
     <t>Nguyễn Quý</t>
   </si>
   <si>
-    <t>Mai Công</t>
+    <t>Sơn</t>
   </si>
   <si>
     <t>Nguyễn Thanh</t>
   </si>
   <si>
-    <t>Huỳnh Trung</t>
-  </si>
-  <si>
-    <t>Lê Thùy</t>
+    <t>Tùng</t>
   </si>
   <si>
     <t>Trần Trung</t>
   </si>
   <si>
-    <t>An</t>
-  </si>
-  <si>
-    <t>Bảo</t>
-  </si>
-  <si>
-    <t>Chương</t>
-  </si>
-  <si>
-    <t>Phú</t>
-  </si>
-  <si>
-    <t>Minh</t>
-  </si>
-  <si>
-    <t>Sơn</t>
-  </si>
-  <si>
-    <t>Tâm</t>
-  </si>
-  <si>
-    <t>Tùng</t>
-  </si>
-  <si>
-    <t>Tuấn</t>
-  </si>
-  <si>
-    <t>Vân</t>
-  </si>
-  <si>
-    <t>Hạnh</t>
-  </si>
-  <si>
     <t>Hiếu</t>
-  </si>
-  <si>
-    <t>VTA</t>
-  </si>
-  <si>
-    <t>NTB</t>
-  </si>
-  <si>
-    <t>ĐLB</t>
-  </si>
-  <si>
-    <t>ĐLA</t>
-  </si>
-  <si>
-    <t>VTB</t>
-  </si>
-  <si>
-    <t>NTA</t>
-  </si>
-  <si>
-    <t>MÃ ĐP</t>
-  </si>
-  <si>
-    <t>CHI PHÍ A</t>
-  </si>
-  <si>
-    <t>CHI PHÍ B</t>
-  </si>
-  <si>
-    <t>VT</t>
-  </si>
-  <si>
-    <t>NT</t>
-  </si>
-  <si>
-    <t>ĐL</t>
-  </si>
-  <si>
-    <t>VŨNG TÀU</t>
-  </si>
-  <si>
-    <t>NHA TRANG</t>
-  </si>
-  <si>
-    <t>ĐÀ LẠT</t>
-  </si>
-  <si>
-    <t>Doanh thu</t>
-  </si>
-  <si>
-    <t>TÌNH HÌNH KINH DOANH THÁNG 07/2010</t>
-  </si>
-  <si>
-    <t>Bảng giá</t>
-  </si>
-  <si>
-    <t>Đơn giá
-ngày lẻ</t>
-  </si>
-  <si>
-    <t>Đơn giá
-tuần</t>
-  </si>
-  <si>
-    <t>Loại phòng</t>
   </si>
   <si>
     <t>MÃ HÀNG</t>
@@ -530,36 +536,36 @@
     <t>TV</t>
   </si>
   <si>
+    <t>Bảng 1</t>
+  </si>
+  <si>
+    <t>Bảng 2</t>
+  </si>
+  <si>
     <t>TL</t>
   </si>
   <si>
+    <t>THỜI ĐIỂM</t>
+  </si>
+  <si>
     <t>MG</t>
   </si>
   <si>
-    <t>Bảng 1</t>
-  </si>
-  <si>
-    <t>THỜI ĐIỂM</t>
-  </si>
-  <si>
-    <t>Bảng 2</t>
-  </si>
-  <si>
     <t>TÊN HÀNG</t>
   </si>
   <si>
+    <t>TIVI</t>
+  </si>
+  <si>
+    <t>TỦ LẠNH</t>
+  </si>
+  <si>
+    <t>MÁY GIẶT</t>
+  </si>
+  <si>
     <t>TỶ LỆ THUẾ</t>
   </si>
   <si>
-    <t>TIVI</t>
-  </si>
-  <si>
-    <t>TỦ LẠNH</t>
-  </si>
-  <si>
-    <t>MÁY GIẶT</t>
-  </si>
-  <si>
     <t>TỔNG</t>
   </si>
   <si>
@@ -576,6 +582,12 @@
   </si>
   <si>
     <t>THÁNG 12</t>
+  </si>
+  <si>
+    <t>Công ty Du lịch QUÊ HƯƠNG</t>
+  </si>
+  <si>
+    <t>BÁO CÁO DOANH THU QUÝ 4/2008</t>
   </si>
   <si>
     <t>TÊN KHÁCH HÀNG</t>
@@ -598,48 +610,57 @@
     <t>CTY HOA HỒNG</t>
   </si>
   <si>
+    <t>HVTA</t>
+  </si>
+  <si>
+    <t>XN IN Q.5</t>
+  </si>
+  <si>
+    <t>HNTB</t>
+  </si>
+  <si>
+    <t>XN GIÀY DA Q.1</t>
+  </si>
+  <si>
+    <t>MNTB</t>
+  </si>
+  <si>
+    <t>TOYOTA</t>
+  </si>
+  <si>
+    <t>CTY PHÁT ĐẠT</t>
+  </si>
+  <si>
+    <t>MĐLB</t>
+  </si>
+  <si>
+    <t>MERCEDES</t>
+  </si>
+  <si>
+    <t>CTY THỊNH PHÁT</t>
+  </si>
+  <si>
+    <t>MVTA</t>
+  </si>
+  <si>
+    <t>HUYNDAI</t>
+  </si>
+  <si>
     <t>XN MAY SAIGON</t>
   </si>
   <si>
+    <t>TĐLA</t>
+  </si>
+  <si>
     <t>CTY NHẬT TÂN</t>
   </si>
   <si>
-    <t>XN GIÀY DA Q.1</t>
-  </si>
-  <si>
-    <t>XN IN Q.5</t>
-  </si>
-  <si>
-    <t>CTY PHÁT ĐẠT</t>
-  </si>
-  <si>
-    <t>CTY THỊNH PHÁT</t>
+    <t>TVTB</t>
   </si>
   <si>
     <t>XN IN KHẢI HOÀN</t>
   </si>
   <si>
-    <t>HVTA</t>
-  </si>
-  <si>
-    <t>TĐLA</t>
-  </si>
-  <si>
-    <t>TVTB</t>
-  </si>
-  <si>
-    <t>MNTB</t>
-  </si>
-  <si>
-    <t>HNTB</t>
-  </si>
-  <si>
-    <t>MĐLB</t>
-  </si>
-  <si>
-    <t>MVTA</t>
-  </si>
-  <si>
     <t>TNTA</t>
   </si>
   <si>
@@ -649,34 +670,90 @@
     <t>T</t>
   </si>
   <si>
+    <t>M</t>
+  </si>
+  <si>
     <t>H</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>TOYOTA</t>
-  </si>
-  <si>
-    <t>MERCEDES</t>
-  </si>
-  <si>
-    <t>HUYNDAI</t>
-  </si>
-  <si>
     <t>MÃ ĐỊA PHƯƠNG</t>
   </si>
   <si>
     <t>TỔNG THU</t>
   </si>
   <si>
-    <t>Công ty Du lịch QUÊ HƯƠNG</t>
-  </si>
-  <si>
-    <t>BÁO CÁO DOANH THU QUÝ 4/2008</t>
-  </si>
-  <si>
     <t>GIẢM GIÁ</t>
+  </si>
+  <si>
+    <t>MÃ DU LỊCH</t>
+  </si>
+  <si>
+    <t>ĐỊA ĐIỂM
+DU LỊCH</t>
+  </si>
+  <si>
+    <t>PHƯƠNG TIỆN
+LOẠI DV</t>
+  </si>
+  <si>
+    <t>PHỤ THU</t>
+  </si>
+  <si>
+    <t>TỔNG TIỀN</t>
+  </si>
+  <si>
+    <t>NTX1N</t>
+  </si>
+  <si>
+    <t>MÁY BAY</t>
+  </si>
+  <si>
+    <t>XE DU LỊCH</t>
+  </si>
+  <si>
+    <t>NTX1V</t>
+  </si>
+  <si>
+    <t>LOẠI 1</t>
+  </si>
+  <si>
+    <t>LOẠI 2</t>
+  </si>
+  <si>
+    <t>HNB2V</t>
+  </si>
+  <si>
+    <t>HNB1N</t>
+  </si>
+  <si>
+    <t>ĐLX1N</t>
+  </si>
+  <si>
+    <t>HN</t>
+  </si>
+  <si>
+    <t>HÀ NỘI</t>
+  </si>
+  <si>
+    <t>HNX1V</t>
+  </si>
+  <si>
+    <t>NTB2V</t>
+  </si>
+  <si>
+    <t>MÃ PT</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>HNX2V</t>
+  </si>
+  <si>
+    <t>PHƯƠNG TIỆN</t>
+  </si>
+  <si>
+    <t>ĐLB2V</t>
   </si>
 </sst>
 </file>
@@ -687,7 +764,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="d/mm/yy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -716,6 +793,17 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -725,7 +813,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -827,11 +915,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -889,7 +992,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -929,21 +1039,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -961,7 +1086,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="vi-VN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1044,7 +1169,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet7!$K$14</c:f>
+              <c:f>'Bai7'!$K$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1065,7 +1190,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet7!$L$13:$N$13</c:f>
+              <c:f>'Bai7'!$L$13:$N$13</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1082,7 +1207,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet7!$L$14:$N$14</c:f>
+              <c:f>'Bai7'!$L$14:$N$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1109,7 +1234,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet7!$K$15</c:f>
+              <c:f>'Bai7'!$K$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1130,7 +1255,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet7!$L$13:$N$13</c:f>
+              <c:f>'Bai7'!$L$13:$N$13</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1147,7 +1272,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet7!$L$15:$N$15</c:f>
+              <c:f>'Bai7'!$L$15:$N$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1174,7 +1299,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet7!$K$16</c:f>
+              <c:f>'Bai7'!$K$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1195,7 +1320,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet7!$L$13:$N$13</c:f>
+              <c:f>'Bai7'!$L$13:$N$13</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1212,7 +1337,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet7!$L$16:$N$16</c:f>
+              <c:f>'Bai7'!$L$16:$N$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1433,7 +1558,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="vi-VN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1525,7 +1650,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet8!$A$24</c:f>
+              <c:f>'Bai 8'!$A$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1546,7 +1671,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet8!$B$23:$D$23</c:f>
+              <c:f>'Bai 8'!$B$23:$D$23</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1563,7 +1688,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet8!$B$24:$D$24</c:f>
+              <c:f>'Bai 8'!$B$24:$D$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3221,60 +3346,60 @@
       <selection activeCell="F8" sqref="F8:G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
+      <c r="A1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1">
         <v>50</v>
@@ -3291,15 +3416,15 @@
         <v>3015000</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1">
         <v>40</v>
@@ -3316,15 +3441,15 @@
         <v>4020000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1">
         <v>4000</v>
@@ -3341,15 +3466,15 @@
         <v>1407000</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1">
         <v>150</v>
@@ -3366,15 +3491,15 @@
         <v>542700</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1">
         <v>200</v>
@@ -3391,14 +3516,14 @@
         <v>9045000</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="1"/>
-      <c r="B8" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="33"/>
+      <c r="B8" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="36"/>
       <c r="F8" s="9">
         <f>SUM(F3:F7)</f>
         <v>89700</v>
@@ -3415,6 +3540,345 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{440F5379-1614-4006-81FB-7AE9AF0E4784}">
+  <dimension ref="A1:N10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4" style="53" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="53" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="53" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="53" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="53" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="53" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="53" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="53"/>
+    <col min="9" max="9" width="16.5703125" style="53" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="53" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" style="53" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="9.42578125" style="53" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="53"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="48" customFormat="1" ht="30.75">
+      <c r="A1" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>208</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="46" t="s">
+        <v>209</v>
+      </c>
+      <c r="G1" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="I1" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="J1" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="K1" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="51">
+        <v>1</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" s="52" t="str">
+        <f>VLOOKUP(LEFT(B2,2),$I$4:$J$6,2,0)</f>
+        <v>NHA TRANG</v>
+      </c>
+      <c r="D2" s="52" t="str">
+        <f>HLOOKUP(MID(B2,3,1),$I$8:$K$9,2,0)</f>
+        <v>XE DU LỊCH</v>
+      </c>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="54" t="s">
+        <v>212</v>
+      </c>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54" t="s">
+        <v>213</v>
+      </c>
+      <c r="N2" s="54"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="51">
+        <v>2</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="C3" s="52" t="str">
+        <f t="shared" ref="C3:C10" si="0">VLOOKUP(LEFT(B3,2),$I$4:$J$6,2,0)</f>
+        <v>NHA TRANG</v>
+      </c>
+      <c r="D3" s="52" t="str">
+        <f t="shared" ref="D3:D10" si="1">HLOOKUP(MID(B3,3,1),$I$8:$K$9,2,0)</f>
+        <v>XE DU LỊCH</v>
+      </c>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="55" t="s">
+        <v>215</v>
+      </c>
+      <c r="L3" s="55" t="s">
+        <v>216</v>
+      </c>
+      <c r="M3" s="55" t="s">
+        <v>215</v>
+      </c>
+      <c r="N3" s="55" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="51">
+        <v>3</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>217</v>
+      </c>
+      <c r="C4" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>HÀ NỘI</v>
+      </c>
+      <c r="D4" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>MÁY BAY</v>
+      </c>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="I4" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="J4" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="K4" s="52">
+        <v>1550000</v>
+      </c>
+      <c r="L4" s="52">
+        <v>1483000</v>
+      </c>
+      <c r="M4" s="52">
+        <v>95000</v>
+      </c>
+      <c r="N4" s="52">
+        <v>847000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="51">
+        <v>4</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>HÀ NỘI</v>
+      </c>
+      <c r="D5" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>MÁY BAY</v>
+      </c>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="I5" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="J5" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="K5" s="52">
+        <v>1290000</v>
+      </c>
+      <c r="L5" s="52">
+        <v>1170000</v>
+      </c>
+      <c r="M5" s="52">
+        <v>672000</v>
+      </c>
+      <c r="N5" s="52">
+        <v>540000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="51">
+        <v>5</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>ĐÀ LẠT</v>
+      </c>
+      <c r="D6" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>XE DU LỊCH</v>
+      </c>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="I6" s="52" t="s">
+        <v>220</v>
+      </c>
+      <c r="J6" s="52" t="s">
+        <v>221</v>
+      </c>
+      <c r="K6" s="52">
+        <v>4150000</v>
+      </c>
+      <c r="L6" s="52">
+        <v>3970000</v>
+      </c>
+      <c r="M6" s="52">
+        <v>3050000</v>
+      </c>
+      <c r="N6" s="52">
+        <v>2750000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="51">
+        <v>6</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>222</v>
+      </c>
+      <c r="C7" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>HÀ NỘI</v>
+      </c>
+      <c r="D7" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>XE DU LỊCH</v>
+      </c>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="51">
+        <v>7</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>223</v>
+      </c>
+      <c r="C8" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>NHA TRANG</v>
+      </c>
+      <c r="D8" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>MÁY BAY</v>
+      </c>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="I8" s="56" t="s">
+        <v>224</v>
+      </c>
+      <c r="J8" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" s="53" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="51">
+        <v>8</v>
+      </c>
+      <c r="B9" s="52" t="s">
+        <v>226</v>
+      </c>
+      <c r="C9" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>HÀ NỘI</v>
+      </c>
+      <c r="D9" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>XE DU LỊCH</v>
+      </c>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="I9" s="56" t="s">
+        <v>227</v>
+      </c>
+      <c r="J9" s="53" t="s">
+        <v>212</v>
+      </c>
+      <c r="K9" s="53" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="51">
+        <v>9</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>228</v>
+      </c>
+      <c r="C10" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>ĐÀ LẠT</v>
+      </c>
+      <c r="D10" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v>MÁY BAY</v>
+      </c>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3426,80 +3890,80 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
+      <c r="A1" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="G2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H2" s="1">
         <v>400000</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="G3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H3" s="2">
         <v>830000</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="7" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1">
         <v>5.47</v>
@@ -3519,15 +3983,15 @@
         <v>8540100</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D6" s="1">
         <v>5.22</v>
@@ -3547,15 +4011,15 @@
         <v>7732600</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D7" s="1">
         <v>3.3</v>
@@ -3575,15 +4039,15 @@
         <v>5439000</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="1">
         <v>4.62</v>
@@ -3603,12 +4067,12 @@
         <v>6034600</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>37</v>
@@ -3631,15 +4095,15 @@
         <v>5020400</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D10" s="1">
         <v>4.9800000000000004</v>
@@ -3659,15 +4123,15 @@
         <v>5733400</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D11" s="1">
         <v>5.22</v>
@@ -3687,15 +4151,15 @@
         <v>5932600</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" s="1"/>
-      <c r="B12" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
+      <c r="B12" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
       <c r="G12" s="9">
         <f>SUM(G5:G11)</f>
         <v>5000000</v>
@@ -3722,76 +4186,76 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B1" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
+    <row r="1" spans="1:8">
+      <c r="B1" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="B2" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
       <c r="H2">
         <v>25000000</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D4" s="1">
         <v>170000</v>
@@ -3812,15 +4276,15 @@
         <v>4626206.8965517245</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D5" s="1">
         <v>150000</v>
@@ -3841,15 +4305,15 @@
         <v>3800689.6551724137</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D6" s="1">
         <v>130000</v>
@@ -3870,15 +4334,15 @@
         <v>3666206.8965517241</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="1">
         <v>110000</v>
@@ -3899,12 +4363,12 @@
         <v>3428965.5172413792</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>37</v>
@@ -3928,12 +4392,12 @@
         <v>3168965.5172413792</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>37</v>
@@ -3957,12 +4421,12 @@
         <v>3197241.3793103448</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>37</v>
@@ -3986,13 +4450,13 @@
         <v>3111724.1379310344</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
+    <row r="11" spans="1:8">
+      <c r="A11" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
       <c r="E11" s="1">
         <f>SUM(E4:E10)</f>
         <v>174</v>
@@ -4028,73 +4492,73 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="3.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-    </row>
-    <row r="3" spans="1:8" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="5" customFormat="1">
+      <c r="A1" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+    </row>
+    <row r="3" spans="1:8" s="5" customFormat="1" ht="28.9">
       <c r="A3" s="13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C4" s="1">
         <v>4</v>
@@ -4119,12 +4583,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C5" s="1">
         <v>7</v>
@@ -4149,12 +4613,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C6" s="1">
         <v>7</v>
@@ -4179,12 +4643,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C7" s="1">
         <v>6</v>
@@ -4209,12 +4673,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C8" s="1">
         <v>5</v>
@@ -4239,12 +4703,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C9" s="1">
         <v>9</v>
@@ -4269,12 +4733,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C10" s="1">
         <v>6</v>
@@ -4299,12 +4763,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C11" s="1">
         <v>8</v>
@@ -4329,12 +4793,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C12" s="1">
         <v>8</v>
@@ -4359,12 +4823,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C13" s="1">
         <v>9</v>
@@ -4389,34 +4853,34 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C14" s="38" t="s">
+    <row r="14" spans="1:8">
+      <c r="C14" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
       <c r="F14" s="16">
         <f>AVERAGE(E4:E13)</f>
         <v>6.7333333333333343</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C15" s="30" t="s">
+    <row r="15" spans="1:8">
+      <c r="C15" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
       <c r="F15" s="11">
         <f>MAX(E4:E13)</f>
         <v>9.3333333333333339</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C16" s="30" t="s">
+    <row r="16" spans="1:8">
+      <c r="C16" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
       <c r="F16" s="11">
         <f>MIN(E4:E13)</f>
         <v>4.666666666666667</v>
@@ -4442,84 +4906,84 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B1" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-    </row>
-    <row r="2" spans="1:15" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15">
+      <c r="B1" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+    </row>
+    <row r="2" spans="1:15" s="6" customFormat="1" ht="28.9">
       <c r="A2" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>144</v>
+        <v>87</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>146</v>
+        <v>88</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="8">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D3" s="18">
         <v>40360</v>
@@ -4548,7 +5012,7 @@
         <v>380</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M3" s="1">
         <v>130</v>
@@ -4557,15 +5021,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15">
       <c r="A4" s="8">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D4" s="18">
         <v>40361</v>
@@ -4594,7 +5058,7 @@
         <v>320</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M4" s="1">
         <v>95</v>
@@ -4603,15 +5067,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15">
       <c r="A5" s="8">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D5" s="18">
         <v>40364</v>
@@ -4649,12 +5113,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15">
       <c r="A6" s="8">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>95</v>
@@ -4686,15 +5150,15 @@
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15">
       <c r="A7" s="8">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D7" s="18">
         <v>40367</v>
@@ -4723,12 +5187,12 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15">
       <c r="A8" s="8">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>95</v>
@@ -4760,27 +5224,27 @@
         <v>115</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>147</v>
+        <v>99</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15">
       <c r="A9" s="8">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D9" s="18">
         <v>40369</v>
@@ -4809,7 +5273,7 @@
         <v>205</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="M9" s="1">
         <f>SUMIF($C$3:$C$9,"A",J3:J9)</f>
@@ -4841,59 +5305,59 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="19" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" s="12" customFormat="1" ht="28.9">
       <c r="A2" s="13" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="E3" s="1" t="str">
         <f t="shared" ref="E3:E14" si="0">VLOOKUP(LEFT(D3,2),$J$4:$N$6,2,FALSE)</f>
@@ -4912,45 +5376,45 @@
         <v>800000</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4969,10 +5433,10 @@
         <v>850000</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="L4" s="1">
         <v>100000</v>
@@ -4984,7 +5448,7 @@
         <v>450000</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="Q4" s="1">
         <f>SUMIF($E$3:$E$14,"VŨNG TÀU",$H$3:$H$14)</f>
@@ -4999,18 +5463,18 @@
         <v>3250000</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="E5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5029,10 +5493,10 @@
         <v>800000</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="L5" s="1">
         <v>300000</v>
@@ -5044,18 +5508,18 @@
         <v>650000</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="E6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5074,10 +5538,10 @@
         <v>800000</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="L6" s="1">
         <v>250000</v>
@@ -5089,18 +5553,18 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5119,18 +5583,18 @@
         <v>950000</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5149,18 +5613,18 @@
         <v>950000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5179,18 +5643,18 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="E10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5209,18 +5673,18 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="E11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5239,18 +5703,18 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="E12" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5269,18 +5733,18 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="E13" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5299,18 +5763,18 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="E14" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5329,7 +5793,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="18" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" s="5" customFormat="1"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H14">
     <sortCondition ref="E3:E14"/>
@@ -5346,26 +5810,26 @@
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.9"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="9.109375" style="20"/>
-    <col min="11" max="11" width="13.33203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="10.88671875" style="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.109375" style="20"/>
-    <col min="16" max="16" width="12.88671875" style="20" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="20"/>
-    <col min="18" max="18" width="9.88671875" style="20" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="20"/>
+    <col min="3" max="3" width="10.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="9.140625" style="20"/>
+    <col min="11" max="11" width="13.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="10.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="20"/>
+    <col min="16" max="16" width="12.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="20"/>
+    <col min="18" max="18" width="9.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="21" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="21" customFormat="1" ht="27.6">
       <c r="A1" s="26" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B1" s="26" t="s">
         <v>148</v>
@@ -5392,7 +5856,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19">
       <c r="A2" s="22">
         <v>1</v>
       </c>
@@ -5426,18 +5890,18 @@
         <v>7425</v>
       </c>
       <c r="K2" s="20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="P2" s="20" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="22">
         <v>2</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C3" s="24" t="str">
         <f t="shared" ref="C3:C9" si="0">HLOOKUP(B3,$Q$3:$S$4,2,0)</f>
@@ -5472,10 +5936,10 @@
         <v>156</v>
       </c>
       <c r="M3" s="22" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N3" s="22" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="P3" s="22" t="s">
         <v>148</v>
@@ -5484,18 +5948,18 @@
         <v>156</v>
       </c>
       <c r="R3" s="24" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="S3" s="24" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="22">
         <v>3</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C4" s="24" t="str">
         <f t="shared" si="0"/>
@@ -5539,21 +6003,21 @@
         <v>162</v>
       </c>
       <c r="Q4" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="R4" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="R4" s="24" t="s">
+      <c r="S4" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="S4" s="24" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="22">
         <v>4</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C5" s="24" t="str">
         <f t="shared" si="0"/>
@@ -5594,7 +6058,7 @@
         <v>270</v>
       </c>
       <c r="P5" s="22" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q5" s="25">
         <v>0</v>
@@ -5606,12 +6070,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19">
       <c r="A6" s="22">
         <v>5</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C6" s="24" t="str">
         <f t="shared" si="0"/>
@@ -5652,7 +6116,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19">
       <c r="A7" s="22">
         <v>6</v>
       </c>
@@ -5686,7 +6150,7 @@
         <v>4704</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19">
       <c r="A8" s="22">
         <v>7</v>
       </c>
@@ -5720,12 +6184,12 @@
         <v>9166.5</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19">
       <c r="A9" s="22">
         <v>8</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C9" s="24" t="str">
         <f t="shared" si="0"/>
@@ -5754,14 +6218,14 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="40" t="s">
+    <row r="10" spans="1:19">
+      <c r="A10" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="42"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="45"/>
       <c r="F10" s="22">
         <f>SUM(F2:F9)</f>
         <v>41100</v>
@@ -5785,13 +6249,13 @@
         <v>168</v>
       </c>
       <c r="M10" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="N10" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="N10" s="22" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:19">
       <c r="K11" s="22" t="s">
         <v>169</v>
       </c>
@@ -5808,7 +6272,7 @@
         <v>3680</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19">
       <c r="K13" s="22"/>
       <c r="L13" s="22" t="s">
         <v>170</v>
@@ -5820,7 +6284,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19">
       <c r="K14" s="22" t="s">
         <v>156</v>
       </c>
@@ -5837,9 +6301,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19">
       <c r="K15" s="22" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L15" s="22">
         <f>SUMIFS($E$2:$E$9,$B$2:$B$9,"TL",$D$2:$D$9,"&gt;=1/10/2008",$D$2:$D$9,"&lt;1/11/2008")</f>
@@ -5854,9 +6318,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19">
       <c r="K16" s="22" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="L16" s="22">
         <f>SUMIFS($E$2:$E$9,$B$2:$B$9,"MG",$D$2:$D$9,"&gt;=1/10/2008",$D$2:$D$9,"&lt;1/11/2008")</f>
@@ -5884,84 +6348,84 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51EF6687-B1DB-47EC-8C21-F6B5C3D6CE9E}">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
-        <v>204</v>
-      </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-    </row>
-    <row r="3" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+    </row>
+    <row r="3" spans="1:15" ht="28.9">
       <c r="A3" s="13" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>151</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I3" s="14" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15">
       <c r="A4" s="8">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C4" s="1">
         <v>50</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E4" s="1" t="str">
         <f t="shared" ref="E4:E11" si="0">VLOOKUP(LEFT(D4,1),$A$15:$E$17,2,0)</f>
@@ -5984,7 +6448,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15">
       <c r="A5" s="8">
         <v>5</v>
       </c>
@@ -5995,7 +6459,7 @@
         <v>50</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="E5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6019,27 +6483,27 @@
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="8">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C6" s="1">
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6062,7 +6526,7 @@
         <v>810000</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="M6" s="1">
         <f>SUMIFS($I$4:$I$11,$E$4:$E$11,"TOYOTA",$F$4:$F$11,"VŨNG TÀU")</f>
@@ -6077,18 +6541,18 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15">
       <c r="A7" s="8">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C7" s="1">
         <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6111,7 +6575,7 @@
         <v>1980000</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="M7" s="1">
         <f>SUMIFS($I$4:$I$11,$E$4:$E$11,"MERCEDES",$F$4:$F$11,"VŨNG TÀU")</f>
@@ -6126,18 +6590,18 @@
         <v>1980000</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15">
       <c r="A8" s="8">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C8" s="1">
         <v>60</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6160,7 +6624,7 @@
         <v>3600000</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="M8" s="1">
         <f>SUMIFS($I$4:$I$11,$E$4:$E$11,"HUYNDAI",$F$4:$F$11,"VŨNG TÀU")</f>
@@ -6175,18 +6639,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15">
       <c r="A9" s="8">
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="C9" s="1">
         <v>30</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="E9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6209,18 +6673,18 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15">
       <c r="A10" s="8">
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="C10" s="1">
         <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="E10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6243,18 +6707,18 @@
         <v>450000</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15">
       <c r="A11" s="8">
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="C11" s="1">
         <v>40</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="E11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6277,34 +6741,34 @@
         <v>3200000</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="8" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="C15" s="1">
         <v>50000</v>
@@ -6316,12 +6780,12 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15">
       <c r="A16" s="8" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="C16" s="1">
         <v>60000</v>
@@ -6333,12 +6797,12 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="8" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C17" s="1">
         <v>40000</v>
@@ -6350,56 +6814,56 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="29" t="s">
-        <v>202</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="B24" s="1">
         <f>SUMIF($F$4:$F$11,"VŨNG TÀU",$I$4:$I$11)</f>
@@ -6429,62 +6893,57 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96C8427F-9890-466D-9AF4-D4E49729DE8F}">
-  <dimension ref="A2:O11"/>
+  <dimension ref="A2:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.9"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" style="20" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="20" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" style="20"/>
-    <col min="11" max="11" width="19.21875" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.77734375" style="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="20" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="20" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="20"/>
+    <col min="11" max="11" width="19.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="20" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.6640625" style="20" customWidth="1"/>
-    <col min="16" max="16384" width="9.109375" style="20"/>
+    <col min="14" max="14" width="9.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" style="20" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-    </row>
-    <row r="3" spans="1:15" s="21" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" s="21" customFormat="1">
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+    </row>
+    <row r="3" spans="1:15" s="21" customFormat="1" ht="27.6">
       <c r="A3" s="26" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C3" s="27" t="s">
         <v>151</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H3" s="26" t="s">
         <v>205</v>
@@ -6493,33 +6952,33 @@
         <v>155</v>
       </c>
       <c r="K3" s="26" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="L3" s="26" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M3" s="26" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="N3" s="26" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="O3" s="26" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="24">
         <v>1</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C4" s="22">
         <v>50</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E4" s="22" t="str">
         <f>VLOOKUP(LEFT(D4,1),$K$4:$L$6,2,0)</f>
@@ -6533,13 +6992,19 @@
         <f>VLOOKUP(E4,$L$4:$O$6,IF(MID(D4,2,2)="VT",2,IF(MID(D4,2,2)="NT",3,4)),0)*C4</f>
         <v>2000000</v>
       </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
+      <c r="H4" s="22">
+        <f>IF(RIGHT(D4,1)="A",0,10%*G4)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="22">
+        <f>G4-H4</f>
+        <v>2000000</v>
+      </c>
       <c r="K4" s="24" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="L4" s="22" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="M4" s="22">
         <v>50000</v>
@@ -6551,271 +7016,399 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="24">
         <v>2</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C5" s="22">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E5" s="22" t="str">
-        <f t="shared" ref="E5:E11" si="0">VLOOKUP(LEFT(D5,1),$K$4:$L$6,2,0)</f>
-        <v>TOYOTA</v>
+        <f>VLOOKUP(LEFT(D5,1),$K$4:$L$6,2,0)</f>
+        <v>HUYNDAI</v>
       </c>
       <c r="F5" s="22" t="str">
-        <f t="shared" ref="F5:F11" si="1">HLOOKUP(MID(D5,2,2),$L$8:$N$9,2,0)</f>
-        <v>ĐÀ LẠT</v>
+        <f>HLOOKUP(MID(D5,2,2),$L$8:$N$9,2,0)</f>
+        <v>NHA TRANG</v>
       </c>
       <c r="G5" s="22">
-        <f t="shared" ref="G5:G11" si="2">VLOOKUP(E5,$L$4:$O$6,IF(MID(D5,2,2)="VT",2,IF(MID(D5,2,2)="NT",3,4)),0)*C5</f>
-        <v>3000000</v>
-      </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="46"/>
+        <f>VLOOKUP(E5,$L$4:$O$6,IF(MID(D5,2,2)="VT",2,IF(MID(D5,2,2)="NT",3,4)),0)*C5</f>
+        <v>3500000</v>
+      </c>
+      <c r="H5" s="22">
+        <f>IF(RIGHT(D5,1)="A",0,10%*G5)</f>
+        <v>350000</v>
+      </c>
+      <c r="I5" s="22">
+        <f>G5-H5</f>
+        <v>3150000</v>
+      </c>
+      <c r="J5" s="30"/>
       <c r="K5" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="L5" s="47" t="s">
-        <v>199</v>
-      </c>
-      <c r="M5" s="47">
+        <v>201</v>
+      </c>
+      <c r="L5" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="M5" s="22">
         <v>60000</v>
       </c>
-      <c r="N5" s="47">
+      <c r="N5" s="22">
         <v>90000</v>
       </c>
       <c r="O5" s="22">
         <v>110000</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" s="24">
         <v>3</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C6" s="22">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D6" s="22" t="s">
         <v>188</v>
       </c>
       <c r="E6" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>TOYOTA</v>
+        <f>VLOOKUP(LEFT(D6,1),$K$4:$L$6,2,0)</f>
+        <v>MERCEDES</v>
       </c>
       <c r="F6" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v>VŨNG TÀU</v>
+        <f>HLOOKUP(MID(D6,2,2),$L$8:$N$9,2,0)</f>
+        <v>ĐÀ LẠT</v>
       </c>
       <c r="G6" s="22">
-        <f t="shared" si="2"/>
-        <v>500000</v>
-      </c>
-      <c r="H6" s="22"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="46"/>
+        <f>VLOOKUP(E6,$L$4:$O$6,IF(MID(D6,2,2)="VT",2,IF(MID(D6,2,2)="NT",3,4)),0)*C6</f>
+        <v>2200000</v>
+      </c>
+      <c r="H6" s="22">
+        <f>IF(RIGHT(D6,1)="A",0,10%*G6)</f>
+        <v>220000</v>
+      </c>
+      <c r="I6" s="22">
+        <f>G6-H6</f>
+        <v>1980000</v>
+      </c>
+      <c r="J6" s="30"/>
       <c r="K6" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="L6" s="47" t="s">
-        <v>200</v>
-      </c>
-      <c r="M6" s="47">
+        <v>202</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="M6" s="22">
         <v>40000</v>
       </c>
-      <c r="N6" s="47">
+      <c r="N6" s="22">
         <v>70000</v>
       </c>
       <c r="O6" s="22">
         <v>90000</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" s="24">
         <v>4</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C7" s="22">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E7" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(LEFT(D7,1),$K$4:$L$6,2,0)</f>
         <v>MERCEDES</v>
       </c>
       <c r="F7" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v>NHA TRANG</v>
+        <f>HLOOKUP(MID(D7,2,2),$L$8:$N$9,2,0)</f>
+        <v>VŨNG TÀU</v>
       </c>
       <c r="G7" s="22">
-        <f t="shared" si="2"/>
-        <v>900000</v>
-      </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(E7,$L$4:$O$6,IF(MID(D7,2,2)="VT",2,IF(MID(D7,2,2)="NT",3,4)),0)*C7</f>
+        <v>3600000</v>
+      </c>
+      <c r="H7" s="22">
+        <f>IF(RIGHT(D7,1)="A",0,10%*G7)</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="22">
+        <f>G7-H7</f>
+        <v>3600000</v>
+      </c>
+      <c r="J7" s="30"/>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="24">
         <v>5</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C8" s="22">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E8" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>HUYNDAI</v>
+        <f>VLOOKUP(LEFT(D8,1),$K$4:$L$6,2,0)</f>
+        <v>MERCEDES</v>
       </c>
       <c r="F8" s="22" t="str">
-        <f t="shared" si="1"/>
+        <f>HLOOKUP(MID(D8,2,2),$L$8:$N$9,2,0)</f>
         <v>NHA TRANG</v>
       </c>
       <c r="G8" s="22">
-        <f t="shared" si="2"/>
-        <v>3500000</v>
-      </c>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="48" t="s">
-        <v>201</v>
+        <f>VLOOKUP(E8,$L$4:$O$6,IF(MID(D8,2,2)="VT",2,IF(MID(D8,2,2)="NT",3,4)),0)*C8</f>
+        <v>900000</v>
+      </c>
+      <c r="H8" s="22">
+        <f>IF(RIGHT(D8,1)="A",0,10%*G8)</f>
+        <v>90000</v>
+      </c>
+      <c r="I8" s="22">
+        <f>G8-H8</f>
+        <v>810000</v>
+      </c>
+      <c r="K8" s="31" t="s">
+        <v>203</v>
       </c>
       <c r="L8" s="22" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="M8" s="22" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="N8" s="22" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="24">
         <v>6</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="C9" s="22">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E9" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>MERCEDES</v>
+        <f>VLOOKUP(LEFT(D9,1),$K$4:$L$6,2,0)</f>
+        <v>TOYOTA</v>
       </c>
       <c r="F9" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v>ĐÀ LẠT</v>
+        <f>HLOOKUP(MID(D9,2,2),$L$8:$N$9,2,0)</f>
+        <v>VŨNG TÀU</v>
       </c>
       <c r="G9" s="22">
-        <f t="shared" si="2"/>
-        <v>2200000</v>
-      </c>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="48" t="s">
-        <v>99</v>
+        <f>VLOOKUP(E9,$L$4:$O$6,IF(MID(D9,2,2)="VT",2,IF(MID(D9,2,2)="NT",3,4)),0)*C9</f>
+        <v>500000</v>
+      </c>
+      <c r="H9" s="22">
+        <f>IF(RIGHT(D9,1)="A",0,10%*G9)</f>
+        <v>50000</v>
+      </c>
+      <c r="I9" s="22">
+        <f>G9-H9</f>
+        <v>450000</v>
+      </c>
+      <c r="K9" s="31" t="s">
+        <v>113</v>
       </c>
       <c r="L9" s="22" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="M9" s="22" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="N9" s="22" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="24">
         <v>7</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="C10" s="22">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="E10" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>MERCEDES</v>
+        <f>VLOOKUP(LEFT(D10,1),$K$4:$L$6,2,0)</f>
+        <v>TOYOTA</v>
       </c>
       <c r="F10" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v>VŨNG TÀU</v>
+        <f>HLOOKUP(MID(D10,2,2),$L$8:$N$9,2,0)</f>
+        <v>NHA TRANG</v>
       </c>
       <c r="G10" s="22">
-        <f t="shared" si="2"/>
-        <v>3600000</v>
-      </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(E10,$L$4:$O$6,IF(MID(D10,2,2)="VT",2,IF(MID(D10,2,2)="NT",3,4)),0)*C10</f>
+        <v>3200000</v>
+      </c>
+      <c r="H10" s="22">
+        <f>IF(RIGHT(D10,1)="A",0,10%*G10)</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="22">
+        <f>G10-H10</f>
+        <v>3200000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="24">
         <v>8</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="C11" s="22">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E11" s="22" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(LEFT(D11,1),$K$4:$L$6,2,0)</f>
         <v>TOYOTA</v>
       </c>
       <c r="F11" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v>NHA TRANG</v>
+        <f>HLOOKUP(MID(D11,2,2),$L$8:$N$9,2,0)</f>
+        <v>ĐÀ LẠT</v>
       </c>
       <c r="G11" s="22">
-        <f t="shared" si="2"/>
+        <f>VLOOKUP(E11,$L$4:$O$6,IF(MID(D11,2,2)="VT",2,IF(MID(D11,2,2)="NT",3,4)),0)*C11</f>
+        <v>3000000</v>
+      </c>
+      <c r="H11" s="22">
+        <f>IF(RIGHT(D11,1)="A",0,10%*G11)</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="22">
+        <f>G11-H11</f>
+        <v>3000000</v>
+      </c>
+      <c r="K11" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="L11" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="M11" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="N11" s="32" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="K12" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="L12" s="32">
+        <f>SUMIF($F$4:$F$11,"VŨNG TÀU",$I$4:$I$11)</f>
+        <v>6050000</v>
+      </c>
+      <c r="M12" s="32">
+        <f>SUMIF($F$4:$F$11,"ĐÀ LẠT",$I$4:$I$11)</f>
+        <v>4980000</v>
+      </c>
+      <c r="N12" s="32">
+        <f>SUMIF($F$4:$F$11,"NHA TRANG",$I$4:$I$11)</f>
+        <v>7160000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="K14" s="32"/>
+      <c r="L14" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="M14" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="N14" s="32" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="K15" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="L15" s="32">
+        <f>SUMIFS($I$4:$I$11,$E$4:$E$11,"TOYOTA",$F$4:$F$11,"VŨNG TÀU")</f>
+        <v>450000</v>
+      </c>
+      <c r="M15" s="32">
+        <f>SUMIFS($I$4:$I$11,$E$4:$E$11,"TOYOTA",$F$4:$F$11,"NHA TRANG")</f>
         <v>3200000</v>
       </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
+      <c r="N15" s="32">
+        <f>SUMIFS($I$4:$I$11,$E$4:$E$11,"TOYOTA",$F$4:$F$11,"ĐÀ LẠT")</f>
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="K16" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="L16" s="32">
+        <f>SUMIFS($I$4:$I$11,$E$4:$E$11,"HUYNDAI",$F$4:$F$11,"VŨNG TÀU")</f>
+        <v>2000000</v>
+      </c>
+      <c r="M16" s="32">
+        <f>SUMIFS($I$4:$I$11,$E$4:$E$11,"HUYNDAI",$F$4:$F$11,"NHA TRANG")</f>
+        <v>3150000</v>
+      </c>
+      <c r="N16" s="32">
+        <f>SUMIFS($I$4:$I$11,$E$4:$E$11,"HUYNDAI",$F$4:$F$11,"ĐÀ LẠT")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="11:14">
+      <c r="K17" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="L17" s="32">
+        <f>SUMIFS($I$4:$I$11,$E$4:$E$11,"MERCEDES",$F$4:$F$11,"VŨNG TÀU")</f>
+        <v>3600000</v>
+      </c>
+      <c r="M17" s="32">
+        <f>SUMIFS($I$4:$I$11,$E$4:$E$11,"MERCEDES",$F$4:$F$11,"NHA TRANG")</f>
+        <v>810000</v>
+      </c>
+      <c r="N17" s="32">
+        <f>SUMIFS($I$4:$I$11,$E$4:$E$11,"MERCEDES",$F$4:$F$11,"ĐÀ LẠT")</f>
+        <v>1980000</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="B4:I11" xr:uid="{96C8427F-9890-466D-9AF4-D4E49729DE8F}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:I11">
+      <sortCondition ref="E5:E11"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
